--- a/data/input_excel/DBLP_toxicity_detection.xlsx
+++ b/data/input_excel/DBLP_toxicity_detection.xlsx
@@ -375,14 +375,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="89.83203125" customWidth="1"/>
-    <col min="3" max="3" width="178.83203125" customWidth="1"/>
+    <col min="2" max="2" width="90.83203125" customWidth="1"/>
+    <col min="3" max="3" width="194.83203125" customWidth="1"/>
     <col min="4" max="4" width="292.83203125" customWidth="1"/>
     <col min="5" max="5" width="39.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
@@ -392,8 +392,8 @@
     <col min="10" max="10" width="41.83203125" customWidth="1"/>
     <col min="11" max="11" width="426.83203125" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="101.83203125" customWidth="1"/>
-    <col min="14" max="14" width="33.83203125" customWidth="1"/>
+    <col min="13" max="13" width="107.83203125" customWidth="1"/>
+    <col min="14" max="14" width="35.83203125" customWidth="1"/>
     <col min="15" max="15" width="12.83203125" customWidth="1"/>
     <col min="16" max="16" width="25.83203125" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" customWidth="1"/>
@@ -461,28 +461,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B2" t="str">
-        <v>Anuchitanukul A,Ive J,Specia L</v>
+        <v>Anjum,Katarya R</v>
       </c>
       <c r="C2" t="str">
         <v/>
       </c>
       <c r="D2" t="str">
-        <v>Revisiting Contextual Toxicity Detection in Conversations</v>
+        <v>Hate speech, toxicity detection in online social media: a recent survey of state of the art and opportunities</v>
       </c>
       <c r="E2" t="str">
-        <v>ACM J. Data Inf. Qual.</v>
+        <v>Int. J. Inf. Sec.</v>
       </c>
       <c r="F2" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G2" t="str">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H2" t="str">
         <v>1</v>
       </c>
       <c r="I2" t="str">
-        <v>6:1-6:22</v>
+        <v>577-608</v>
       </c>
       <c r="J2" t="str">
         <v/>
@@ -491,13 +491,13 @@
         <v/>
       </c>
       <c r="L2" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M2" t="str">
-        <v>https://doi.org/10.1145/3561390;http://dx.doi.org/10.1145/3561390</v>
+        <v>https://doi.org/10.1007/s10207-023-00755-2;http://dx.doi.org/10.1007/S10207-023-00755-2</v>
       </c>
       <c r="N2" t="str">
-        <v>10.1145/3561390</v>
+        <v>10.1007/S10207-023-00755-2</v>
       </c>
       <c r="O2" t="str">
         <v/>
@@ -514,46 +514,46 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B3" t="str">
-        <v>Singh NK,Singh P,Das P,Chand S</v>
+        <v>Kang H,Qian T</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>Ku LW,Martins A,Srikumar V</v>
       </c>
       <c r="D3" t="str">
-        <v>XRBi-GAC: A hybrid deep learning framework for multilingual toxicity detection</v>
+        <v>Implanting LLM's Knowledge via Reading Comprehension Tree for Toxicity Detection</v>
       </c>
       <c r="E3" t="str">
-        <v>J. Intell. Fuzzy Syst.</v>
+        <v/>
       </c>
       <c r="F3" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G3" t="str">
-        <v>45</v>
+        <v/>
       </c>
       <c r="H3" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v>1409-1421</v>
+        <v>947-962</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>Findings of the Association for Computational Linguistics, ACL 2024, Bangkok, Thailand and virtual meeting, August 11-16, 2024</v>
       </c>
       <c r="L3" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M3" t="str">
-        <v>https://doi.org/10.3233/JIFS-224536;http://dx.doi.org/10.3233/JIFS-224536</v>
+        <v>https://doi.org/10.18653/v1/2024.findings-acl.56;http://dx.doi.org/10.18653/V1/2024.FINDINGS-ACL.56</v>
       </c>
       <c r="N3" t="str">
-        <v>10.3233/JIFS-224536</v>
+        <v>10.18653/V1/2024.FINDINGS-ACL.56</v>
       </c>
       <c r="O3" t="str">
         <v/>
@@ -570,46 +570,46 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B4" t="str">
-        <v>Muralikumar MD,Yang YS,McDonald DW</v>
+        <v>Maity K,Sangeetha P,Saha S,Bhattacharyya P</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>Ku LW,Martins A,Srikumar V</v>
       </c>
       <c r="D4" t="str">
-        <v>A Human-centered Evaluation of a Toxicity Detection API: Testing Transferability and Unpacking Latent Attributes</v>
+        <v>ToxVidLM: A Multimodal Framework for Toxicity Detection in Code-Mixed Videos</v>
       </c>
       <c r="E4" t="str">
-        <v>ACM Trans. Soc. Comput.</v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G4" t="str">
-        <v>6</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <v/>
       </c>
       <c r="I4" t="str">
-        <v>4:1-4:38</v>
+        <v>11130-11142</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>Findings of the Association for Computational Linguistics, ACL 2024, Bangkok, Thailand and virtual meeting, August 11-16, 2024</v>
       </c>
       <c r="L4" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M4" t="str">
-        <v>https://doi.org/10.1145/3582568;http://dx.doi.org/10.1145/3582568</v>
+        <v>https://doi.org/10.18653/v1/2024.findings-acl.663;http://dx.doi.org/10.18653/V1/2024.FINDINGS-ACL.663</v>
       </c>
       <c r="N4" t="str">
-        <v>10.1145/3582568</v>
+        <v>10.18653/V1/2024.FINDINGS-ACL.663</v>
       </c>
       <c r="O4" t="str">
         <v/>
@@ -629,49 +629,49 @@
         <v>Conference Paper</v>
       </c>
       <c r="B5" t="str">
-        <v>Böck J,Schütz M,Liakhovets D,Satriani NQ,Babic A,Slijepcevic D,Zeppelzauer M,Schindler A</v>
+        <v>Moosavi K,Martin E,Ahmad MA,Mashhadi A</v>
       </c>
       <c r="C5" t="str">
-        <v>Aliannejadi M,Faggioli G,Ferro N,Vlachos M</v>
+        <v>Farzan R,López C,Llach DC,Quercia D,Mustafa M,Niu S,Wong-Villacrés M</v>
       </c>
       <c r="D5" t="str">
-        <v>AIT_FHSTP at EXIST 2023 Benchmark: Sexism Detection by Transfer Learning, Sentiment and Toxicity Embeddings and Hand-Crafted Features</v>
+        <v>E\(^2\)T\(^2\): Emote Embedding for Twitch Toxicity Detection</v>
       </c>
       <c r="E5" t="str">
         <v/>
       </c>
       <c r="F5" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G5" t="str">
-        <v>3497</v>
+        <v/>
       </c>
       <c r="H5" t="str">
         <v/>
       </c>
       <c r="I5" t="str">
-        <v>878-890</v>
+        <v>128-133</v>
       </c>
       <c r="J5" t="str">
-        <v>CEUR-WS.org</v>
+        <v>ACM</v>
       </c>
       <c r="K5" t="str">
-        <v>Working Notes of the Conference and Labs of the Evaluation Forum (CLEF 2023), Thessaloniki, Greece, September 18th to 21st, 2023</v>
+        <v>Companion Publication of the 2024 Conference on Computer-Supported Cooperative Work and Social Computing, CSCW Companion 2024, San Jose, Costa Rica, November 9-13, 2024</v>
       </c>
       <c r="L5" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M5" t="str">
-        <v>https://ceur-ws.org/Vol-3497/paper-074.pdf</v>
+        <v>https://doi.org/10.1145/3678884.3681840;http://dx.doi.org/10.1145/3678884.3681840</v>
       </c>
       <c r="N5" t="str">
-        <v/>
+        <v>10.1145/3678884.3681840</v>
       </c>
       <c r="O5" t="str">
         <v/>
       </c>
       <c r="P5" t="str">
-        <v>CEUR Workshop Proceedings</v>
+        <v/>
       </c>
       <c r="Q5" t="str">
         <v/>
@@ -685,19 +685,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B6" t="str">
-        <v>Berezin S,Farahbakhsh R,Crespi N</v>
+        <v>Cao YT,Domingo LF,Gilbert SA,Mazurek ML,Shilton K,Iii HD</v>
       </c>
       <c r="C6" t="str">
-        <v>Bouamor H,Pino J,Bali K</v>
+        <v>Al-Onaizan Y,Bansal M,Chen YN</v>
       </c>
       <c r="D6" t="str">
-        <v>No offence, Bert - I insult only humans! Multilingual sentence-level attack on toxicity detection networks</v>
+        <v>Toxicity Detection is NOT all you Need: Measuring the Gaps to Supporting Volunteer Content Moderators through a User-Centric Method</v>
       </c>
       <c r="E6" t="str">
         <v/>
       </c>
       <c r="F6" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -706,19 +706,19 @@
         <v/>
       </c>
       <c r="I6" t="str">
-        <v>2362-2369</v>
+        <v>3567-3587</v>
       </c>
       <c r="J6" t="str">
         <v>Association for Computational Linguistics</v>
       </c>
       <c r="K6" t="str">
-        <v>Findings of the Association for Computational Linguistics: EMNLP 2023, Singapore, December 6-10, 2023</v>
+        <v>Proceedings of the 2024 Conference on Empirical Methods in Natural Language Processing, EMNLP 2024, Miami, FL, USA, November 12-16, 2024</v>
       </c>
       <c r="L6" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M6" t="str">
-        <v>https://aclanthology.org/2023.findings-emnlp.155</v>
+        <v>https://aclanthology.org/2024.emnlp-main.209</v>
       </c>
       <c r="N6" t="str">
         <v/>
@@ -741,19 +741,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B7" t="str">
-        <v>Van Dorpe J,Yang Z,Grenon-Godbout N,Winterstein G</v>
+        <v>Nandwana MK,He Y,Liu J,Yu X,Shang C,du Bois E,McGuire M,Bhat K</v>
       </c>
       <c r="C7" t="str">
-        <v>Wang M,Zitouni I</v>
+        <v/>
       </c>
       <c r="D7" t="str">
-        <v>Unveiling Identity Biases in Toxicity Detection : A Game-Focused Dataset and Reactivity Analysis Approach</v>
+        <v>Voice Toxicity Detection Using Multi-Task Learning</v>
       </c>
       <c r="E7" t="str">
         <v/>
       </c>
       <c r="F7" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -762,22 +762,22 @@
         <v/>
       </c>
       <c r="I7" t="str">
-        <v>263-274</v>
+        <v>331-335</v>
       </c>
       <c r="J7" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v>IEEE</v>
       </c>
       <c r="K7" t="str">
-        <v>Proceedings of the 2023 Conference on Empirical Methods in Natural Language Processing: EMNLP 2023 - Industry Track, Singapore, December 6-10, 2023</v>
+        <v>IEEE International Conference on Acoustics, Speech and Signal Processing, ICASSP 2024, Seoul, Republic of Korea, April 14-19, 2024</v>
       </c>
       <c r="L7" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M7" t="str">
-        <v>https://aclanthology.org/2023.emnlp-industry.26</v>
+        <v>https://doi.org/10.1109/ICASSP48485.2024.10448289;http://dx.doi.org/10.1109/ICASSP48485.2024.10448289</v>
       </c>
       <c r="N7" t="str">
-        <v/>
+        <v>10.1109/ICASSP48485.2024.10448289</v>
       </c>
       <c r="O7" t="str">
         <v/>
@@ -797,19 +797,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B8" t="str">
-        <v>Lin Z,Wang Z,Tong Y,Wang Y,Guo Y,Wang Y,Shang J</v>
+        <v>Balestriero R,Cosentino R,Shekkizhar S</v>
       </c>
       <c r="C8" t="str">
-        <v>Bouamor H,Pino J,Bali K</v>
+        <v/>
       </c>
       <c r="D8" t="str">
-        <v>ToxicChat: Unveiling Hidden Challenges of Toxicity Detection in Real-World User-AI Conversation</v>
+        <v>Characterizing Large Language Model Geometry Helps Solve Toxicity Detection and Generation</v>
       </c>
       <c r="E8" t="str">
         <v/>
       </c>
       <c r="F8" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -818,19 +818,19 @@
         <v/>
       </c>
       <c r="I8" t="str">
-        <v>4694-4702</v>
+        <v/>
       </c>
       <c r="J8" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v>OpenReview.net</v>
       </c>
       <c r="K8" t="str">
-        <v>Findings of the Association for Computational Linguistics: EMNLP 2023, Singapore, December 6-10, 2023</v>
+        <v>Forty-first International Conference on Machine Learning, ICML 2024, Vienna, Austria, July 21-27, 2024</v>
       </c>
       <c r="L8" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M8" t="str">
-        <v>https://aclanthology.org/2023.findings-emnlp.311</v>
+        <v>https://openreview.net/forum?id=glfcwSsks8</v>
       </c>
       <c r="N8" t="str">
         <v/>
@@ -853,19 +853,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B9" t="str">
-        <v>Raman V,Fleisig E,Klein D</v>
+        <v>Mishra S,Chatterjee P</v>
       </c>
       <c r="C9" t="str">
-        <v>Bouamor H,Pino J,Bali K</v>
+        <v/>
       </c>
       <c r="D9" t="str">
-        <v>Centering the Margins: Outlier-Based Identification of Harmed Populations in Toxicity Detection</v>
+        <v>Exploring ChatGPT for Toxicity Detection in GitHub</v>
       </c>
       <c r="E9" t="str">
         <v/>
       </c>
       <c r="F9" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -874,22 +874,22 @@
         <v/>
       </c>
       <c r="I9" t="str">
-        <v>9316-9329</v>
+        <v>6-10</v>
       </c>
       <c r="J9" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v>ACM</v>
       </c>
       <c r="K9" t="str">
-        <v>Proceedings of the 2023 Conference on Empirical Methods in Natural Language Processing, EMNLP 2023, Singapore, December 6-10, 2023</v>
+        <v>Proceedings of the 2024 ACM/IEEE 44th International Conference on Software Engineering: New Ideas and Emerging Results, NIER@ICSE 2024, Lisbon, Portugal, April 14-20, 2024</v>
       </c>
       <c r="L9" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M9" t="str">
-        <v>https://aclanthology.org/2023.emnlp-main.579</v>
+        <v>https://doi.org/10.1145/3639476.3639777;http://dx.doi.org/10.1145/3639476.3639777</v>
       </c>
       <c r="N9" t="str">
-        <v/>
+        <v>10.1145/3639476.3639777</v>
       </c>
       <c r="O9" t="str">
         <v/>
@@ -909,19 +909,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B10" t="str">
-        <v>Upadhyaya A,Fisichella M,Nejdl W</v>
+        <v>Hu Z,Piet J,Zhao G,Jiao J,Wagner DA</v>
       </c>
       <c r="C10" t="str">
-        <v>Bouamor H,Pino J,Bali K</v>
+        <v>Globersons A,Mackey L,Belgrave D,Fan A,Paquet U,Tomczak JM,Zhang C</v>
       </c>
       <c r="D10" t="str">
-        <v>Toxicity, Morality, and Speech Act Guided Stance Detection</v>
+        <v>Toxicity Detection for Free</v>
       </c>
       <c r="E10" t="str">
         <v/>
       </c>
       <c r="F10" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -930,19 +930,19 @@
         <v/>
       </c>
       <c r="I10" t="str">
-        <v>4464-4478</v>
+        <v/>
       </c>
       <c r="J10" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K10" t="str">
-        <v>Findings of the Association for Computational Linguistics: EMNLP 2023, Singapore, December 6-10, 2023</v>
+        <v>Advances in Neural Information Processing Systems 38: Annual Conference on Neural Information Processing Systems 2024, NeurIPS 2024, Vancouver, BC, Canada, December 10 - 15, 2024</v>
       </c>
       <c r="L10" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M10" t="str">
-        <v>https://aclanthology.org/2023.findings-emnlp.295</v>
+        <v>http://papers.nips.cc/paper_files/paper/2024/hash/1f69928210578f4cf5b538a8c8806798-Abstract-Conference.html</v>
       </c>
       <c r="N10" t="str">
         <v/>
@@ -965,19 +965,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B11" t="str">
-        <v>Sarker J,Sultana S,Wilson SR,Bosu A</v>
+        <v>Schäfer J,Heid U,Klinger R</v>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>Clercq O,Barrière V,Barnes J,Klinger R,Sedoc J,Tafreshi S</v>
       </c>
       <c r="D11" t="str">
-        <v>ToxiSpanSE: An Explainable Toxicity Detection in Code Review Comments</v>
+        <v>Hierarchical Adversarial Correction to Mitigate Identity Term Bias in Toxicity Detection</v>
       </c>
       <c r="E11" t="str">
         <v/>
       </c>
       <c r="F11" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -986,22 +986,22 @@
         <v/>
       </c>
       <c r="I11" t="str">
-        <v>1-12</v>
+        <v>35-51</v>
       </c>
       <c r="J11" t="str">
-        <v>IEEE</v>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K11" t="str">
-        <v>ACM/IEEE International Symposium on Empirical Software Engineering and Measurement, ESEM 2023, New Orleans, LA, USA, October 26-27, 2023</v>
+        <v>Proceedings of the 14th Workshop on Computational Approaches to Subjectivity, Sentiment, &amp; Social Media Analysis, WASSA 2024, Bangkok, Thailand, August 15, 2024</v>
       </c>
       <c r="L11" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M11" t="str">
-        <v>https://doi.org/10.1109/ESEM56168.2023.10304855;http://dx.doi.org/10.1109/ESEM56168.2023.10304855</v>
+        <v>https://aclanthology.org/2024.wassa-1.4</v>
       </c>
       <c r="N11" t="str">
-        <v>10.1109/ESEM56168.2023.10304855</v>
+        <v/>
       </c>
       <c r="O11" t="str">
         <v/>
@@ -1018,46 +1018,46 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B12" t="str">
-        <v>Eskelinen A,Silvala L,Ginter F,Pyysalo S,Laippala V</v>
+        <v>Warner M,Strohmayer A,Higgs M,Coventry LM</v>
       </c>
       <c r="C12" t="str">
-        <v>Alumäe T,Fishel M</v>
+        <v/>
       </c>
       <c r="D12" t="str">
-        <v>Toxicity Detection in Finnish Using Machine Translation</v>
+        <v>A Critical Reflection on the Use of Toxicity Detection Algorithms in Proactive Content Moderation Systems</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F12" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v>abs/2401.10629</v>
       </c>
       <c r="H12" t="str">
         <v/>
       </c>
       <c r="I12" t="str">
-        <v>685-697</v>
+        <v/>
       </c>
       <c r="J12" t="str">
-        <v>University of Tartu Library</v>
+        <v/>
       </c>
       <c r="K12" t="str">
-        <v>Proceedings of the 24th Nordic Conference on Computational Linguistics, NoDaLiDa 2023, Tórshavn, Faroe Islands, May 22-24, 2023</v>
+        <v/>
       </c>
       <c r="L12" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M12" t="str">
-        <v>https://aclanthology.org/2023.nodalida-1.68</v>
+        <v>https://doi.org/10.48550/arXiv.2401.10629;http://dx.doi.org/10.48550/ARXIV.2401.10629</v>
       </c>
       <c r="N12" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2401.10629</v>
       </c>
       <c r="O12" t="str">
         <v/>
@@ -1066,7 +1066,7 @@
         <v/>
       </c>
       <c r="Q12" t="str">
-        <v/>
+        <v>2401.10629</v>
       </c>
       <c r="R12" t="str">
         <v/>
@@ -1074,46 +1074,46 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B13" t="str">
-        <v>Maity A,Kandru P,Singh B,Hari KA,Varma V</v>
+        <v>Hu Z,Piet J,Zhao G,Jiao J,Wagner DA</v>
       </c>
       <c r="C13" t="str">
-        <v>Ojha AK,Dogruöz AS,Martino GS,Madabushi HT,Kumar R,Sartori E</v>
+        <v/>
       </c>
       <c r="D13" t="str">
-        <v>IREL at SemEval-2023 Task 11: User Conditioned Modelling for Toxicity Detection in Subjective Tasks</v>
+        <v>Toxicity Detection for Free</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F13" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v>abs/2405.18822</v>
       </c>
       <c r="H13" t="str">
         <v/>
       </c>
       <c r="I13" t="str">
-        <v>2133-2136</v>
+        <v/>
       </c>
       <c r="J13" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K13" t="str">
-        <v>Proceedings of the The 17th International Workshop on Semantic Evaluation, SemEval@ACL 2023, Toronto, Canada, 13-14 July 2023</v>
+        <v/>
       </c>
       <c r="L13" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M13" t="str">
-        <v>https://doi.org/10.18653/v1/2023.semeval-1.294;http://dx.doi.org/10.18653/V1/2023.SEMEVAL-1.294</v>
+        <v>https://doi.org/10.48550/arXiv.2405.18822;http://dx.doi.org/10.48550/ARXIV.2405.18822</v>
       </c>
       <c r="N13" t="str">
-        <v>10.18653/V1/2023.SEMEVAL-1.294</v>
+        <v>10.48550/ARXIV.2405.18822</v>
       </c>
       <c r="O13" t="str">
         <v/>
@@ -1122,7 +1122,7 @@
         <v/>
       </c>
       <c r="Q13" t="str">
-        <v/>
+        <v>2405.18822</v>
       </c>
       <c r="R13" t="str">
         <v/>
@@ -1130,46 +1130,46 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B14" t="str">
-        <v>Gupta S,Lee S,De-Arteaga M,Lease M</v>
+        <v>Maity K,Poornash AS,Saha S,Bhattacharyya P</v>
       </c>
       <c r="C14" t="str">
-        <v>Ding Y,Tang J,Sequeda JF,Aroyo L,Castillo C,Houben GJ</v>
+        <v/>
       </c>
       <c r="D14" t="str">
-        <v>Same Same, But Different: Conditional Multi-Task Learning for Demographic-Specific Toxicity Detection</v>
+        <v>ToxVidLLM: A Multimodal LLM-based Framework for Toxicity Detection in Code-Mixed Videos</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F14" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v>abs/2405.20628</v>
       </c>
       <c r="H14" t="str">
         <v/>
       </c>
       <c r="I14" t="str">
-        <v>3689-3700</v>
+        <v/>
       </c>
       <c r="J14" t="str">
-        <v>ACM</v>
+        <v/>
       </c>
       <c r="K14" t="str">
-        <v>Proceedings of the ACM Web Conference 2023, WWW 2023, Austin, TX, USA, 30 April 2023 - 4 May 2023</v>
+        <v/>
       </c>
       <c r="L14" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M14" t="str">
-        <v>https://doi.org/10.1145/3543507.3583290;http://dx.doi.org/10.1145/3543507.3583290</v>
+        <v>https://doi.org/10.48550/arXiv.2405.20628;http://dx.doi.org/10.48550/ARXIV.2405.20628</v>
       </c>
       <c r="N14" t="str">
-        <v>10.1145/3543507.3583290</v>
+        <v>10.48550/ARXIV.2405.20628</v>
       </c>
       <c r="O14" t="str">
         <v/>
@@ -1178,7 +1178,7 @@
         <v/>
       </c>
       <c r="Q14" t="str">
-        <v/>
+        <v>2405.20628</v>
       </c>
       <c r="R14" t="str">
         <v/>
@@ -1189,22 +1189,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B15" t="str">
-        <v>Gupta S,Lee S,De-Arteaga M,Lease M</v>
+        <v>Liu J,Nandwana MK,Pylkkönen J,Heikinheimo H,McGuire M</v>
       </c>
       <c r="C15" t="str">
         <v/>
       </c>
       <c r="D15" t="str">
-        <v>Same Same, But Different: Conditional Multi-Task Learning for Demographic-Specific Toxicity Detection</v>
+        <v>Enhancing Multilingual Voice Toxicity Detection with Speech-Text Alignment</v>
       </c>
       <c r="E15" t="str">
         <v>CoRR</v>
       </c>
       <c r="F15" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G15" t="str">
-        <v>abs/2302.07372</v>
+        <v>abs/2406.10325</v>
       </c>
       <c r="H15" t="str">
         <v/>
@@ -1219,13 +1219,13 @@
         <v/>
       </c>
       <c r="L15" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M15" t="str">
-        <v>https://doi.org/10.48550/arXiv.2302.07372;http://dx.doi.org/10.48550/ARXIV.2302.07372</v>
+        <v>https://doi.org/10.48550/arXiv.2406.10325;http://dx.doi.org/10.48550/ARXIV.2406.10325</v>
       </c>
       <c r="N15" t="str">
-        <v>10.48550/ARXIV.2302.07372</v>
+        <v>10.48550/ARXIV.2406.10325</v>
       </c>
       <c r="O15" t="str">
         <v/>
@@ -1234,7 +1234,7 @@
         <v/>
       </c>
       <c r="Q15" t="str">
-        <v>2302.07372</v>
+        <v>2406.10325</v>
       </c>
       <c r="R15" t="str">
         <v/>
@@ -1245,22 +1245,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B16" t="str">
-        <v>Gunturi U,Ding X,Rho EH</v>
+        <v>Ng LH,Lim AX,Yoder MM</v>
       </c>
       <c r="C16" t="str">
         <v/>
       </c>
       <c r="D16" t="str">
-        <v>ToxVis: Enabling Interpretability of Implicit vs. Explicit Toxicity Detection Models with Interactive Visualization</v>
+        <v>Challenges for Real-Time Toxicity Detection in Online Games</v>
       </c>
       <c r="E16" t="str">
         <v>CoRR</v>
       </c>
       <c r="F16" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G16" t="str">
-        <v>abs/2303.09402</v>
+        <v>abs/2407.04383</v>
       </c>
       <c r="H16" t="str">
         <v/>
@@ -1275,13 +1275,13 @@
         <v/>
       </c>
       <c r="L16" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M16" t="str">
-        <v>https://doi.org/10.48550/arXiv.2303.09402;http://dx.doi.org/10.48550/ARXIV.2303.09402</v>
+        <v>https://doi.org/10.48550/arXiv.2407.04383;http://dx.doi.org/10.48550/ARXIV.2407.04383</v>
       </c>
       <c r="N16" t="str">
-        <v>10.48550/ARXIV.2303.09402</v>
+        <v>10.48550/ARXIV.2407.04383</v>
       </c>
       <c r="O16" t="str">
         <v/>
@@ -1290,7 +1290,7 @@
         <v/>
       </c>
       <c r="Q16" t="str">
-        <v>2303.09402</v>
+        <v>2407.04383</v>
       </c>
       <c r="R16" t="str">
         <v/>
@@ -1301,22 +1301,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B17" t="str">
-        <v>Korotkova E,Chung IK</v>
+        <v>Berezin S,Farahbakhsh R,Crespi N</v>
       </c>
       <c r="C17" t="str">
         <v/>
       </c>
       <c r="D17" t="str">
-        <v>Beyond Toxic: Toxicity Detection Datasets are Not Enough for Brand Safety</v>
+        <v>Read Over the Lines: Attacking LLMs and Toxicity Detection Systems with ASCII Art to Mask Profanity</v>
       </c>
       <c r="E17" t="str">
         <v>CoRR</v>
       </c>
       <c r="F17" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G17" t="str">
-        <v>abs/2303.15110</v>
+        <v>abs/2409.18708</v>
       </c>
       <c r="H17" t="str">
         <v/>
@@ -1331,13 +1331,13 @@
         <v/>
       </c>
       <c r="L17" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M17" t="str">
-        <v>https://doi.org/10.48550/arXiv.2303.15110;http://dx.doi.org/10.48550/ARXIV.2303.15110</v>
+        <v>https://doi.org/10.48550/arXiv.2409.18708;http://dx.doi.org/10.48550/ARXIV.2409.18708</v>
       </c>
       <c r="N17" t="str">
-        <v>10.48550/ARXIV.2303.15110</v>
+        <v>10.48550/ARXIV.2409.18708</v>
       </c>
       <c r="O17" t="str">
         <v/>
@@ -1346,7 +1346,7 @@
         <v/>
       </c>
       <c r="Q17" t="str">
-        <v>2303.15110</v>
+        <v>2409.18708</v>
       </c>
       <c r="R17" t="str">
         <v/>
@@ -1357,22 +1357,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B18" t="str">
-        <v>Nada AH,Latif S,Qadir J</v>
+        <v>Li Y,Zhang P,Gu H,Lu T,Qiao S,Shu Y,Shao Y,Gu N</v>
       </c>
       <c r="C18" t="str">
         <v/>
       </c>
       <c r="D18" t="str">
-        <v>Lightweight Toxicity Detection in Spoken Language: A Transformer-based Approach for Edge Devices</v>
+        <v>DeMod: A Holistic Tool with Explainable Detection and Personalized Modification for Toxicity Censorship</v>
       </c>
       <c r="E18" t="str">
         <v>CoRR</v>
       </c>
       <c r="F18" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G18" t="str">
-        <v>abs/2304.11408</v>
+        <v>abs/2411.01844</v>
       </c>
       <c r="H18" t="str">
         <v/>
@@ -1387,13 +1387,13 @@
         <v/>
       </c>
       <c r="L18" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M18" t="str">
-        <v>https://doi.org/10.48550/arXiv.2304.11408;http://dx.doi.org/10.48550/ARXIV.2304.11408</v>
+        <v>https://doi.org/10.48550/arXiv.2411.01844;http://dx.doi.org/10.48550/ARXIV.2411.01844</v>
       </c>
       <c r="N18" t="str">
-        <v>10.48550/ARXIV.2304.11408</v>
+        <v>10.48550/ARXIV.2411.01844</v>
       </c>
       <c r="O18" t="str">
         <v/>
@@ -1402,7 +1402,7 @@
         <v/>
       </c>
       <c r="Q18" t="str">
-        <v>2304.11408</v>
+        <v>2411.01844</v>
       </c>
       <c r="R18" t="str">
         <v/>
@@ -1413,22 +1413,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B19" t="str">
-        <v>Althunayan H,Bahlas R,Alharbi M,Alsuwailem L,Aldayel A,Alahmadi R</v>
+        <v>Villate-Castillo G,Ser J,Sanz B</v>
       </c>
       <c r="C19" t="str">
         <v/>
       </c>
       <c r="D19" t="str">
-        <v>Toxicity Inspector: A Framework to Evaluate Ground Truth in Toxicity Detection Through Feedback</v>
+        <v>A Collaborative Content Moderation Framework for Toxicity Detection based on Conformalized Estimates of Annotation Disagreement</v>
       </c>
       <c r="E19" t="str">
         <v>CoRR</v>
       </c>
       <c r="F19" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G19" t="str">
-        <v>abs/2305.10433</v>
+        <v>abs/2411.04090</v>
       </c>
       <c r="H19" t="str">
         <v/>
@@ -1443,13 +1443,13 @@
         <v/>
       </c>
       <c r="L19" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M19" t="str">
-        <v>https://doi.org/10.48550/arXiv.2305.10433;http://dx.doi.org/10.48550/ARXIV.2305.10433</v>
+        <v>https://doi.org/10.48550/arXiv.2411.04090;http://dx.doi.org/10.48550/ARXIV.2411.04090</v>
       </c>
       <c r="N19" t="str">
-        <v>10.48550/ARXIV.2305.10433</v>
+        <v>10.48550/ARXIV.2411.04090</v>
       </c>
       <c r="O19" t="str">
         <v/>
@@ -1458,7 +1458,7 @@
         <v/>
       </c>
       <c r="Q19" t="str">
-        <v>2305.10433</v>
+        <v>2411.04090</v>
       </c>
       <c r="R19" t="str">
         <v/>
@@ -1469,22 +1469,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B20" t="str">
-        <v>Raman V,Fleisig E,Klein D</v>
+        <v>Bell SJ,Meglioli MC,Richards M,Sánchez E,Ropers C,Wang S,Williams A,Sagun L,Costa-jussà MR</v>
       </c>
       <c r="C20" t="str">
         <v/>
       </c>
       <c r="D20" t="str">
-        <v>Centering the Margins: Outlier-Based Identification of Harmed Populations in Toxicity Detection</v>
+        <v>On the Role of Speech Data in Reducing Toxicity Detection Bias</v>
       </c>
       <c r="E20" t="str">
         <v>CoRR</v>
       </c>
       <c r="F20" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G20" t="str">
-        <v>abs/2305.14735</v>
+        <v>abs/2411.08135</v>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -1499,13 +1499,13 @@
         <v/>
       </c>
       <c r="L20" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M20" t="str">
-        <v>https://doi.org/10.48550/arXiv.2305.14735;http://dx.doi.org/10.48550/ARXIV.2305.14735</v>
+        <v>https://doi.org/10.48550/arXiv.2411.08135;http://dx.doi.org/10.48550/ARXIV.2411.08135</v>
       </c>
       <c r="N20" t="str">
-        <v>10.48550/ARXIV.2305.14735</v>
+        <v>10.48550/ARXIV.2411.08135</v>
       </c>
       <c r="O20" t="str">
         <v/>
@@ -1514,7 +1514,7 @@
         <v/>
       </c>
       <c r="Q20" t="str">
-        <v>2305.14735</v>
+        <v>2411.08135</v>
       </c>
       <c r="R20" t="str">
         <v/>
@@ -1525,22 +1525,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B21" t="str">
-        <v>Sarker J,Sultana S,Wilson SR,Bosu A</v>
+        <v>Faisal F,Rahman MM,Anastasopoulos A</v>
       </c>
       <c r="C21" t="str">
         <v/>
       </c>
       <c r="D21" t="str">
-        <v>ToxiSpanSE: An Explainable Toxicity Detection in Code Review Comments</v>
+        <v>Dialectal Toxicity Detection: Evaluating LLM-as-a-Judge Consistency Across Language Varieties</v>
       </c>
       <c r="E21" t="str">
         <v>CoRR</v>
       </c>
       <c r="F21" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G21" t="str">
-        <v>abs/2307.03386</v>
+        <v>abs/2411.10954</v>
       </c>
       <c r="H21" t="str">
         <v/>
@@ -1555,13 +1555,13 @@
         <v/>
       </c>
       <c r="L21" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M21" t="str">
-        <v>https://doi.org/10.48550/arXiv.2307.03386;http://dx.doi.org/10.48550/ARXIV.2307.03386</v>
+        <v>https://doi.org/10.48550/arXiv.2411.10954;http://dx.doi.org/10.48550/ARXIV.2411.10954</v>
       </c>
       <c r="N21" t="str">
-        <v>10.48550/ARXIV.2307.03386</v>
+        <v>10.48550/ARXIV.2411.10954</v>
       </c>
       <c r="O21" t="str">
         <v/>
@@ -1570,7 +1570,7 @@
         <v/>
       </c>
       <c r="Q21" t="str">
-        <v>2307.03386</v>
+        <v>2411.10954</v>
       </c>
       <c r="R21" t="str">
         <v/>
@@ -1581,22 +1581,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B22" t="str">
-        <v>Berezin S,Farahbakhsh R,Crespi N</v>
+        <v>Kang H,Chen J,Li Y,Miao X,Xu M,Zhong M,Zhu Y,Qian T</v>
       </c>
       <c r="C22" t="str">
         <v/>
       </c>
       <c r="D22" t="str">
-        <v>No offence, Bert - I insult only humans! Multiple addressees sentence-level attack on toxicity detection neural network</v>
+        <v>Toxicity Detection towards Adaptability to Changing Perturbations</v>
       </c>
       <c r="E22" t="str">
         <v>CoRR</v>
       </c>
       <c r="F22" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G22" t="str">
-        <v>abs/2310.13099</v>
+        <v>abs/2412.15267</v>
       </c>
       <c r="H22" t="str">
         <v/>
@@ -1611,13 +1611,13 @@
         <v/>
       </c>
       <c r="L22" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M22" t="str">
-        <v>https://doi.org/10.48550/arXiv.2310.13099;http://dx.doi.org/10.48550/ARXIV.2310.13099</v>
+        <v>https://doi.org/10.48550/arXiv.2412.15267;http://dx.doi.org/10.48550/ARXIV.2412.15267</v>
       </c>
       <c r="N22" t="str">
-        <v>10.48550/ARXIV.2310.13099</v>
+        <v>10.48550/ARXIV.2412.15267</v>
       </c>
       <c r="O22" t="str">
         <v/>
@@ -1626,7 +1626,7 @@
         <v/>
       </c>
       <c r="Q22" t="str">
-        <v>2310.13099</v>
+        <v>2412.15267</v>
       </c>
       <c r="R22" t="str">
         <v/>
@@ -1637,22 +1637,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B23" t="str">
-        <v>Lin Z,Wang Z,Tong Y,Wang Y,Guo Y,Wang Y,Shang J</v>
+        <v>Zhao Y,Zhu J,Xu C,Li X</v>
       </c>
       <c r="C23" t="str">
         <v/>
       </c>
       <c r="D23" t="str">
-        <v>ToxicChat: Unveiling Hidden Challenges of Toxicity Detection in Real-World User-AI Conversation</v>
+        <v>Enhancing LLM-based Hatred and Toxicity Detection with Meta-Toxic Knowledge Graph</v>
       </c>
       <c r="E23" t="str">
         <v>CoRR</v>
       </c>
       <c r="F23" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G23" t="str">
-        <v>abs/2310.17389</v>
+        <v>abs/2412.15268</v>
       </c>
       <c r="H23" t="str">
         <v/>
@@ -1667,13 +1667,13 @@
         <v/>
       </c>
       <c r="L23" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M23" t="str">
-        <v>https://doi.org/10.48550/arXiv.2310.17389;http://dx.doi.org/10.48550/ARXIV.2310.17389</v>
+        <v>https://doi.org/10.48550/arXiv.2412.15268;http://dx.doi.org/10.48550/ARXIV.2412.15268</v>
       </c>
       <c r="N23" t="str">
-        <v>10.48550/ARXIV.2310.17389</v>
+        <v>10.48550/ARXIV.2412.15268</v>
       </c>
       <c r="O23" t="str">
         <v/>
@@ -1682,7 +1682,7 @@
         <v/>
       </c>
       <c r="Q23" t="str">
-        <v>2310.17389</v>
+        <v>2412.15268</v>
       </c>
       <c r="R23" t="str">
         <v/>
@@ -1693,28 +1693,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B24" t="str">
-        <v>Cao YT,Domingo LF,Gilbert SA,Mazurek ML,Shilton K,Iii HD</v>
+        <v>Anuchitanukul A,Ive J,Specia L</v>
       </c>
       <c r="C24" t="str">
         <v/>
       </c>
       <c r="D24" t="str">
-        <v>Toxicity Detection is NOT all you Need: Measuring the Gaps to Supporting Volunteer Content Moderators</v>
+        <v>Revisiting Contextual Toxicity Detection in Conversations</v>
       </c>
       <c r="E24" t="str">
-        <v>CoRR</v>
+        <v>ACM J. Data Inf. Qual.</v>
       </c>
       <c r="F24" t="str">
         <v>2023</v>
       </c>
       <c r="G24" t="str">
-        <v>abs/2311.07879</v>
+        <v>15</v>
       </c>
       <c r="H24" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I24" t="str">
-        <v/>
+        <v>6:1-6:22</v>
       </c>
       <c r="J24" t="str">
         <v/>
@@ -1726,10 +1726,10 @@
         <v>2023</v>
       </c>
       <c r="M24" t="str">
-        <v>https://doi.org/10.48550/arXiv.2311.07879;http://dx.doi.org/10.48550/ARXIV.2311.07879</v>
+        <v>https://doi.org/10.1145/3561390;http://dx.doi.org/10.1145/3561390</v>
       </c>
       <c r="N24" t="str">
-        <v>10.48550/ARXIV.2311.07879</v>
+        <v>10.1145/3561390</v>
       </c>
       <c r="O24" t="str">
         <v/>
@@ -1738,7 +1738,7 @@
         <v/>
       </c>
       <c r="Q24" t="str">
-        <v>2311.07879</v>
+        <v/>
       </c>
       <c r="R24" t="str">
         <v/>
@@ -1749,28 +1749,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B25" t="str">
-        <v>Balestriero R,Cosentino R,Shekkizhar S</v>
+        <v>Singh NK,Singh P,Das P,Chand S</v>
       </c>
       <c r="C25" t="str">
         <v/>
       </c>
       <c r="D25" t="str">
-        <v>Characterizing Large Language Model Geometry Solves Toxicity Detection and Generation</v>
+        <v>XRBi-GAC: A hybrid deep learning framework for multilingual toxicity detection</v>
       </c>
       <c r="E25" t="str">
-        <v>CoRR</v>
+        <v>J. Intell. Fuzzy Syst.</v>
       </c>
       <c r="F25" t="str">
         <v>2023</v>
       </c>
       <c r="G25" t="str">
-        <v>abs/2312.01648</v>
+        <v>45</v>
       </c>
       <c r="H25" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I25" t="str">
-        <v/>
+        <v>1409-1421</v>
       </c>
       <c r="J25" t="str">
         <v/>
@@ -1782,10 +1782,10 @@
         <v>2023</v>
       </c>
       <c r="M25" t="str">
-        <v>https://doi.org/10.48550/arXiv.2312.01648;http://dx.doi.org/10.48550/ARXIV.2312.01648</v>
+        <v>https://doi.org/10.3233/JIFS-224536;http://dx.doi.org/10.3233/JIFS-224536</v>
       </c>
       <c r="N25" t="str">
-        <v>10.48550/ARXIV.2312.01648</v>
+        <v>10.3233/JIFS-224536</v>
       </c>
       <c r="O25" t="str">
         <v/>
@@ -1794,7 +1794,7 @@
         <v/>
       </c>
       <c r="Q25" t="str">
-        <v>2312.01648</v>
+        <v/>
       </c>
       <c r="R25" t="str">
         <v/>
@@ -1805,28 +1805,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B26" t="str">
-        <v>Al-Merekhi HA,Kwak H,Salminen J,Jansen BJ</v>
+        <v>Adekunle A,Bambace S,Tanguay-Rioux F,Tartakovsky B</v>
       </c>
       <c r="C26" t="str">
         <v/>
       </c>
       <c r="D26" t="str">
-        <v>PROVOKE: Toxicity trigger detection in conversations from the top 100 subreddits</v>
+        <v>Microbial Fuel Cell Biosensor with Capillary Carbon Source Delivery for Real-Time Toxicity Detection</v>
       </c>
       <c r="E26" t="str">
-        <v>Data Inf. Manag.</v>
+        <v>Sensors</v>
       </c>
       <c r="F26" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G26" t="str">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H26" t="str">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I26" t="str">
-        <v>100019</v>
+        <v>7065</v>
       </c>
       <c r="J26" t="str">
         <v/>
@@ -1835,13 +1835,13 @@
         <v/>
       </c>
       <c r="L26" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M26" t="str">
-        <v>https://doi.org/10.1016/j.dim.2022.100019;http://dx.doi.org/10.1016/J.DIM.2022.100019</v>
+        <v>https://doi.org/10.3390/s23167065;http://dx.doi.org/10.3390/S23167065</v>
       </c>
       <c r="N26" t="str">
-        <v>10.1016/J.DIM.2022.100019</v>
+        <v>10.3390/S23167065</v>
       </c>
       <c r="O26" t="str">
         <v/>
@@ -1861,28 +1861,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B27" t="str">
-        <v>Xenos A,Pavlopoulos J,Androutsopoulos I,Dixon L,Sorensen J,Laugier L</v>
+        <v>Muralikumar MD,Yang YS,McDonald DW</v>
       </c>
       <c r="C27" t="str">
         <v/>
       </c>
       <c r="D27" t="str">
-        <v>Toxicity detection sensitive to conversational context</v>
+        <v>A Human-centered Evaluation of a Toxicity Detection API: Testing Transferability and Unpacking Latent Attributes</v>
       </c>
       <c r="E27" t="str">
-        <v>First Monday</v>
+        <v>ACM Trans. Soc. Comput.</v>
       </c>
       <c r="F27" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G27" t="str">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H27" t="str">
-        <v>9</v>
+        <v/>
       </c>
       <c r="I27" t="str">
-        <v/>
+        <v>4:1-4:38</v>
       </c>
       <c r="J27" t="str">
         <v/>
@@ -1891,13 +1891,13 @@
         <v/>
       </c>
       <c r="L27" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M27" t="str">
-        <v>https://firstmonday.org/ojs/index.php/fm/article/view/12285</v>
+        <v>https://doi.org/10.1145/3582568;http://dx.doi.org/10.1145/3582568</v>
       </c>
       <c r="N27" t="str">
-        <v/>
+        <v>10.1145/3582568</v>
       </c>
       <c r="O27" t="str">
         <v/>
@@ -1914,52 +1914,52 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B28" t="str">
-        <v>Gupta VK</v>
+        <v>Böck J,Schütz M,Liakhovets D,Satriani NQ,Babic A,Slijepcevic D,Zeppelzauer M,Schindler A</v>
       </c>
       <c r="C28" t="str">
-        <v/>
+        <v>Aliannejadi M,Faggioli G,Ferro N,Vlachos M</v>
       </c>
       <c r="D28" t="str">
-        <v>Toxicity detection of small drug molecules of the mitochondrial membrane potential signalling pathway using bagging-based ensemble learning</v>
+        <v>AIT_FHSTP at EXIST 2023 Benchmark: Sexism Detection by Transfer Learning, Sentiment and Toxicity Embeddings and Hand-Crafted Features</v>
       </c>
       <c r="E28" t="str">
-        <v>Int. J. Data Min. Bioinform.</v>
+        <v/>
       </c>
       <c r="F28" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G28" t="str">
-        <v>27</v>
+        <v>3497</v>
       </c>
       <c r="H28" t="str">
-        <v>1/2/3</v>
+        <v/>
       </c>
       <c r="I28" t="str">
-        <v>201-220</v>
+        <v>878-890</v>
       </c>
       <c r="J28" t="str">
-        <v/>
+        <v>CEUR-WS.org</v>
       </c>
       <c r="K28" t="str">
-        <v/>
+        <v>Working Notes of the Conference and Labs of the Evaluation Forum (CLEF 2023), Thessaloniki, Greece, September 18th to 21st, 2023</v>
       </c>
       <c r="L28" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M28" t="str">
-        <v>https://doi.org/10.1504/IJDMB.2022.10052684;http://dx.doi.org/10.1504/IJDMB.2022.10052684</v>
+        <v>https://ceur-ws.org/Vol-3497/paper-074.pdf</v>
       </c>
       <c r="N28" t="str">
-        <v>10.1504/IJDMB.2022.10052684</v>
+        <v/>
       </c>
       <c r="O28" t="str">
         <v/>
       </c>
       <c r="P28" t="str">
-        <v/>
+        <v>CEUR Workshop Proceedings</v>
       </c>
       <c r="Q28" t="str">
         <v/>
@@ -1970,46 +1970,46 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B29" t="str">
-        <v>Lashkarashvili N,Tsintsadze M</v>
+        <v>Berezin S,Farahbakhsh R,Crespi N</v>
       </c>
       <c r="C29" t="str">
-        <v/>
+        <v>Bouamor H,Pino J,Bali K</v>
       </c>
       <c r="D29" t="str">
-        <v>Toxicity detection in online Georgian discussions</v>
+        <v>No offence, Bert - I insult only humans! Multilingual sentence-level attack on toxicity detection networks</v>
       </c>
       <c r="E29" t="str">
-        <v>Int. J. Inf. Manag. Data Insights</v>
+        <v/>
       </c>
       <c r="F29" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G29" t="str">
-        <v>2</v>
+        <v/>
       </c>
       <c r="H29" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I29" t="str">
-        <v>100062</v>
+        <v>2362-2369</v>
       </c>
       <c r="J29" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K29" t="str">
-        <v/>
+        <v>Findings of the Association for Computational Linguistics: EMNLP 2023, Singapore, December 6-10, 2023</v>
       </c>
       <c r="L29" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M29" t="str">
-        <v>https://doi.org/10.1016/j.jjimei.2022.100062;http://dx.doi.org/10.1016/J.JJIMEI.2022.100062</v>
+        <v>https://doi.org/10.18653/v1/2023.findings-emnlp.155;http://dx.doi.org/10.18653/V1/2023.FINDINGS-EMNLP.155</v>
       </c>
       <c r="N29" t="str">
-        <v>10.1016/J.JJIMEI.2022.100062</v>
+        <v>10.18653/V1/2023.FINDINGS-EMNLP.155</v>
       </c>
       <c r="O29" t="str">
         <v/>
@@ -2026,46 +2026,46 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B30" t="str">
-        <v>Machová K,Mach M,Adamisín K</v>
+        <v>Van Dorpe J,Yang Z,Grenon-Godbout N,Winterstein G</v>
       </c>
       <c r="C30" t="str">
-        <v/>
+        <v>Wang M,Zitouni I</v>
       </c>
       <c r="D30" t="str">
-        <v>Machine Learning and Lexicon Approach to Texts Processing in the Detection of Degrees of Toxicity in Online Discussions</v>
+        <v>Unveiling Identity Biases in Toxicity Detection : A Game-Focused Dataset and Reactivity Analysis Approach</v>
       </c>
       <c r="E30" t="str">
-        <v>Sensors</v>
+        <v/>
       </c>
       <c r="F30" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G30" t="str">
-        <v>22</v>
+        <v/>
       </c>
       <c r="H30" t="str">
-        <v>17</v>
+        <v/>
       </c>
       <c r="I30" t="str">
-        <v>6468</v>
+        <v>263-274</v>
       </c>
       <c r="J30" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K30" t="str">
-        <v/>
+        <v>Proceedings of the 2023 Conference on Empirical Methods in Natural Language Processing: EMNLP 2023 - Industry Track, Singapore, December 6-10, 2023</v>
       </c>
       <c r="L30" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M30" t="str">
-        <v>https://doi.org/10.3390/s22176468;http://dx.doi.org/10.3390/S22176468</v>
+        <v>https://doi.org/10.18653/v1/2023.emnlp-industry.26;http://dx.doi.org/10.18653/V1/2023.EMNLP-INDUSTRY.26</v>
       </c>
       <c r="N30" t="str">
-        <v>10.3390/S22176468</v>
+        <v>10.18653/V1/2023.EMNLP-INDUSTRY.26</v>
       </c>
       <c r="O30" t="str">
         <v/>
@@ -2085,19 +2085,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B31" t="str">
-        <v>Lobo PR</v>
+        <v>Lin Z,Wang Z,Tong Y,Wang Y,Guo Y,Wang Y,Shang J</v>
       </c>
       <c r="C31" t="str">
-        <v>Conitzer V,Tasioulas J,Scheutz M,Calo R,Mara M,Zimmermann A</v>
+        <v>Bouamor H,Pino J,Bali K</v>
       </c>
       <c r="D31" t="str">
-        <v>Bias in Hate Speech and Toxicity Detection</v>
+        <v>ToxicChat: Unveiling Hidden Challenges of Toxicity Detection in Real-World User-AI Conversation</v>
       </c>
       <c r="E31" t="str">
         <v/>
       </c>
       <c r="F31" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -2106,22 +2106,22 @@
         <v/>
       </c>
       <c r="I31" t="str">
-        <v>910</v>
+        <v>4694-4702</v>
       </c>
       <c r="J31" t="str">
-        <v>ACM</v>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K31" t="str">
-        <v>AIES '22: AAAI/ACM Conference on AI, Ethics, and Society, Oxford, United Kingdom, May 19 - 21, 2021</v>
+        <v>Findings of the Association for Computational Linguistics: EMNLP 2023, Singapore, December 6-10, 2023</v>
       </c>
       <c r="L31" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M31" t="str">
-        <v>https://doi.org/10.1145/3514094.3539519;http://dx.doi.org/10.1145/3514094.3539519</v>
+        <v>https://doi.org/10.18653/v1/2023.findings-emnlp.311;http://dx.doi.org/10.18653/V1/2023.FINDINGS-EMNLP.311</v>
       </c>
       <c r="N31" t="str">
-        <v>10.1145/3514094.3539519</v>
+        <v>10.18653/V1/2023.FINDINGS-EMNLP.311</v>
       </c>
       <c r="O31" t="str">
         <v/>
@@ -2141,19 +2141,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B32" t="str">
-        <v>Lobo PR,Daga E,Alani H</v>
+        <v>Raman V,Fleisig E,Klein D</v>
       </c>
       <c r="C32" t="str">
-        <v>Budak C,Cha M,Quercia D</v>
+        <v>Bouamor H,Pino J,Bali K</v>
       </c>
       <c r="D32" t="str">
-        <v>Supporting Online Toxicity Detection with Knowledge Graphs</v>
+        <v>Centering the Margins: Outlier-Based Identification of Harmed Populations in Toxicity Detection</v>
       </c>
       <c r="E32" t="str">
         <v/>
       </c>
       <c r="F32" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -2162,22 +2162,22 @@
         <v/>
       </c>
       <c r="I32" t="str">
-        <v>1414-1418</v>
+        <v>9316-9329</v>
       </c>
       <c r="J32" t="str">
-        <v>AAAI Press</v>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K32" t="str">
-        <v>Proceedings of the Sixteenth International AAAI Conference on Web and Social Media, ICWSM 2022, Atlanta, Georgia, USA, June 6-9, 2022</v>
+        <v>Proceedings of the 2023 Conference on Empirical Methods in Natural Language Processing, EMNLP 2023, Singapore, December 6-10, 2023</v>
       </c>
       <c r="L32" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M32" t="str">
-        <v>https://ojs.aaai.org/index.php/ICWSM/article/view/19398</v>
+        <v>https://doi.org/10.18653/v1/2023.emnlp-main.579;http://dx.doi.org/10.18653/V1/2023.EMNLP-MAIN.579</v>
       </c>
       <c r="N32" t="str">
-        <v/>
+        <v>10.18653/V1/2023.EMNLP-MAIN.579</v>
       </c>
       <c r="O32" t="str">
         <v/>
@@ -2197,19 +2197,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B33" t="str">
-        <v>Cheng L,Mosallanezhad A,Silva YN,Hall DL,Liu H</v>
+        <v>Upadhyaya A,Fisichella M,Nejdl W</v>
       </c>
       <c r="C33" t="str">
-        <v>Amigó E,Castells P,Gonzalo J,Carterette B,Culpepper JS,Kazai G</v>
+        <v>Bouamor H,Pino J,Bali K</v>
       </c>
       <c r="D33" t="str">
-        <v>Bias Mitigation for Toxicity Detection via Sequential Decisions</v>
+        <v>Toxicity, Morality, and Speech Act Guided Stance Detection</v>
       </c>
       <c r="E33" t="str">
         <v/>
       </c>
       <c r="F33" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -2218,22 +2218,22 @@
         <v/>
       </c>
       <c r="I33" t="str">
-        <v>1750-1760</v>
+        <v>4464-4478</v>
       </c>
       <c r="J33" t="str">
-        <v>ACM</v>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K33" t="str">
-        <v>SIGIR '22: The 45th International ACM SIGIR Conference on Research and Development in Information Retrieval, Madrid, Spain, July 11 - 15, 2022</v>
+        <v>Findings of the Association for Computational Linguistics: EMNLP 2023, Singapore, December 6-10, 2023</v>
       </c>
       <c r="L33" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M33" t="str">
-        <v>https://doi.org/10.1145/3477495.3531945;http://dx.doi.org/10.1145/3477495.3531945</v>
+        <v>https://doi.org/10.18653/v1/2023.findings-emnlp.295;http://dx.doi.org/10.18653/V1/2023.FINDINGS-EMNLP.295</v>
       </c>
       <c r="N33" t="str">
-        <v>10.1145/3477495.3531945</v>
+        <v>10.18653/V1/2023.FINDINGS-EMNLP.295</v>
       </c>
       <c r="O33" t="str">
         <v/>
@@ -2250,46 +2250,46 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B34" t="str">
-        <v>Jhaveri M,Ramaiya D,Chadha HS</v>
+        <v>Sarker J,Sultana S,Wilson SR,Bosu A</v>
       </c>
       <c r="C34" t="str">
         <v/>
       </c>
       <c r="D34" t="str">
-        <v>Toxicity Detection for Indic Multilingual Social Media Content</v>
+        <v>ToxiSpanSE: An Explainable Toxicity Detection in Code Review Comments</v>
       </c>
       <c r="E34" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F34" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G34" t="str">
-        <v>abs/2201.00598</v>
+        <v/>
       </c>
       <c r="H34" t="str">
         <v/>
       </c>
       <c r="I34" t="str">
-        <v/>
+        <v>1-12</v>
       </c>
       <c r="J34" t="str">
-        <v/>
+        <v>IEEE</v>
       </c>
       <c r="K34" t="str">
-        <v/>
+        <v>ACM/IEEE International Symposium on Empirical Software Engineering and Measurement, ESEM 2023, New Orleans, LA, USA, October 26-27, 2023</v>
       </c>
       <c r="L34" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M34" t="str">
-        <v>https://arxiv.org/abs/2201.00598</v>
+        <v>https://doi.org/10.1109/ESEM56168.2023.10304855;http://dx.doi.org/10.1109/ESEM56168.2023.10304855</v>
       </c>
       <c r="N34" t="str">
-        <v/>
+        <v>10.1109/ESEM56168.2023.10304855</v>
       </c>
       <c r="O34" t="str">
         <v/>
@@ -2298,7 +2298,7 @@
         <v/>
       </c>
       <c r="Q34" t="str">
-        <v>2201.00598</v>
+        <v/>
       </c>
       <c r="R34" t="str">
         <v/>
@@ -2306,55 +2306,55 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B35" t="str">
-        <v>Wang YS,Chang Y</v>
+        <v>M P,K R,Hegde A,Girish K,Coelho S,Shashirekha HL</v>
       </c>
       <c r="C35" t="str">
-        <v/>
+        <v>Ghosh K,Mandl T,Majumder P,Mitra M</v>
       </c>
       <c r="D35" t="str">
-        <v>Toxicity Detection with Generative Prompt-based Inference</v>
+        <v>Taming Toxicity: Learning Models for Hate Speech and Offensive Language Detection in Social Media Text</v>
       </c>
       <c r="E35" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F35" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G35" t="str">
-        <v>abs/2205.12390</v>
+        <v>3681</v>
       </c>
       <c r="H35" t="str">
         <v/>
       </c>
       <c r="I35" t="str">
-        <v/>
+        <v>563-573</v>
       </c>
       <c r="J35" t="str">
-        <v/>
+        <v>CEUR-WS.org</v>
       </c>
       <c r="K35" t="str">
-        <v/>
+        <v>Working Notes of FIRE 2023 - Forum for Information Retrieval Evaluation (FIRE-WN 2023), Goa, India, December 15-18, 2023</v>
       </c>
       <c r="L35" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M35" t="str">
-        <v>https://doi.org/10.48550/arXiv.2205.12390;http://dx.doi.org/10.48550/ARXIV.2205.12390</v>
+        <v>https://ceur-ws.org/Vol-3681/T6-22.pdf</v>
       </c>
       <c r="N35" t="str">
-        <v>10.48550/ARXIV.2205.12390</v>
+        <v/>
       </c>
       <c r="O35" t="str">
         <v/>
       </c>
       <c r="P35" t="str">
-        <v/>
+        <v>CEUR Workshop Proceedings</v>
       </c>
       <c r="Q35" t="str">
-        <v>2205.12390</v>
+        <v/>
       </c>
       <c r="R35" t="str">
         <v/>
@@ -2362,46 +2362,46 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B36" t="str">
-        <v>J AK,Abiramy S,Trueman TE,Cambria E</v>
+        <v>Eskelinen A,Silvala L,Ginter F,Pyysalo S,Laippala V</v>
       </c>
       <c r="C36" t="str">
-        <v/>
+        <v>Alumäe T,Fishel M</v>
       </c>
       <c r="D36" t="str">
-        <v>Comment toxicity detection via a multichannel convolutional bidirectional gated recurrent unit</v>
+        <v>Toxicity Detection in Finnish Using Machine Translation</v>
       </c>
       <c r="E36" t="str">
-        <v>Neurocomputing</v>
+        <v/>
       </c>
       <c r="F36" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G36" t="str">
-        <v>441</v>
+        <v/>
       </c>
       <c r="H36" t="str">
         <v/>
       </c>
       <c r="I36" t="str">
-        <v>272-278</v>
+        <v>685-697</v>
       </c>
       <c r="J36" t="str">
-        <v/>
+        <v>University of Tartu Library</v>
       </c>
       <c r="K36" t="str">
-        <v/>
+        <v>Proceedings of the 24th Nordic Conference on Computational Linguistics, NoDaLiDa 2023, Tórshavn, Faroe Islands, May 22-24, 2023</v>
       </c>
       <c r="L36" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M36" t="str">
-        <v>https://doi.org/10.1016/j.neucom.2021.02.023;http://dx.doi.org/10.1016/J.NEUCOM.2021.02.023</v>
+        <v>https://aclanthology.org/2023.nodalida-1.68</v>
       </c>
       <c r="N36" t="str">
-        <v>10.1016/J.NEUCOM.2021.02.023</v>
+        <v/>
       </c>
       <c r="O36" t="str">
         <v/>
@@ -2418,46 +2418,46 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B37" t="str">
-        <v>Kabakus AT</v>
+        <v>Maity A,Kandru P,Singh B,Hari KA,Varma V</v>
       </c>
       <c r="C37" t="str">
-        <v/>
+        <v>Ojha AK,Dogruöz AS,Martino GS,Madabushi HT,Kumar R,Sartori E</v>
       </c>
       <c r="D37" t="str">
-        <v>Towards the Importance of the Type of Deep Neural Network and Employment of Pre-trained Word Vectors for Toxicity Detection: An Experimental Study</v>
+        <v>IREL at SemEval-2023 Task 11: User Conditioned Modelling for Toxicity Detection in Subjective Tasks</v>
       </c>
       <c r="E37" t="str">
-        <v>J. Web Eng.</v>
+        <v/>
       </c>
       <c r="F37" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G37" t="str">
-        <v>20</v>
+        <v/>
       </c>
       <c r="H37" t="str">
-        <v>8</v>
+        <v/>
       </c>
       <c r="I37" t="str">
-        <v/>
+        <v>2133-2136</v>
       </c>
       <c r="J37" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K37" t="str">
-        <v/>
+        <v>Proceedings of the The 17th International Workshop on Semantic Evaluation, SemEval@ACL 2023, Toronto, Canada, 13-14 July 2023</v>
       </c>
       <c r="L37" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M37" t="str">
-        <v>https://doi.org/10.13052/jwe1540-9589.2082;http://dx.doi.org/10.13052/JWE1540-9589.2082</v>
+        <v>https://doi.org/10.18653/v1/2023.semeval-1.294;http://dx.doi.org/10.18653/V1/2023.SEMEVAL-1.294</v>
       </c>
       <c r="N37" t="str">
-        <v>10.13052/JWE1540-9589.2082</v>
+        <v>10.18653/V1/2023.SEMEVAL-1.294</v>
       </c>
       <c r="O37" t="str">
         <v/>
@@ -2474,46 +2474,46 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B38" t="str">
-        <v>Wright AP,Shaikh O,Park H,Epperson W,Ahmed M,Pinel S,Chau DH,Yang D</v>
+        <v>Gupta S,Lee S,De-Arteaga M,Lease M</v>
       </c>
       <c r="C38" t="str">
-        <v/>
+        <v>Ding Y,Tang J,Sequeda JF,Aroyo L,Castillo C,Houben GJ</v>
       </c>
       <c r="D38" t="str">
-        <v>RECAST: Enabling User Recourse and Interpretability of Toxicity Detection Models with Interactive Visualization</v>
+        <v>Same Same, But Different: Conditional Multi-Task Learning for Demographic-Specific Toxicity Detection</v>
       </c>
       <c r="E38" t="str">
-        <v>Proc. ACM Hum. Comput. Interact.</v>
+        <v/>
       </c>
       <c r="F38" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G38" t="str">
-        <v>5</v>
+        <v/>
       </c>
       <c r="H38" t="str">
-        <v>CSCW1</v>
+        <v/>
       </c>
       <c r="I38" t="str">
-        <v>181:1-181:26</v>
+        <v>3689-3700</v>
       </c>
       <c r="J38" t="str">
-        <v/>
+        <v>ACM</v>
       </c>
       <c r="K38" t="str">
-        <v/>
+        <v>Proceedings of the ACM Web Conference 2023, WWW 2023, Austin, TX, USA, 30 April 2023 - 4 May 2023</v>
       </c>
       <c r="L38" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M38" t="str">
-        <v>https://doi.org/10.1145/3449280;http://dx.doi.org/10.1145/3449280</v>
+        <v>https://doi.org/10.1145/3543507.3583290;http://dx.doi.org/10.1145/3543507.3583290</v>
       </c>
       <c r="N38" t="str">
-        <v>10.1145/3449280</v>
+        <v>10.1145/3543507.3583290</v>
       </c>
       <c r="O38" t="str">
         <v/>
@@ -2533,28 +2533,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B39" t="str">
-        <v>Taulé M,Ariza A,Nofre M,Amigó E,Rosso P</v>
+        <v>Gupta S,Lee S,De-Arteaga M,Lease M</v>
       </c>
       <c r="C39" t="str">
         <v/>
       </c>
       <c r="D39" t="str">
-        <v>Overview of DETOXIS at IberLEF 2021: DEtection of TOXicity in comments In Spanish</v>
+        <v>Same Same, But Different: Conditional Multi-Task Learning for Demographic-Specific Toxicity Detection</v>
       </c>
       <c r="E39" t="str">
-        <v>Proces. del Leng. Natural</v>
+        <v>CoRR</v>
       </c>
       <c r="F39" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G39" t="str">
-        <v>67</v>
+        <v>abs/2302.07372</v>
       </c>
       <c r="H39" t="str">
         <v/>
       </c>
       <c r="I39" t="str">
-        <v>209-221</v>
+        <v/>
       </c>
       <c r="J39" t="str">
         <v/>
@@ -2563,13 +2563,13 @@
         <v/>
       </c>
       <c r="L39" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M39" t="str">
-        <v>http://journal.sepln.org/sepln/ojs/ojs/index.php/pln/article/view/6390</v>
+        <v>https://doi.org/10.48550/arXiv.2302.07372;http://dx.doi.org/10.48550/ARXIV.2302.07372</v>
       </c>
       <c r="N39" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2302.07372</v>
       </c>
       <c r="O39" t="str">
         <v/>
@@ -2578,7 +2578,7 @@
         <v/>
       </c>
       <c r="Q39" t="str">
-        <v/>
+        <v>2302.07372</v>
       </c>
       <c r="R39" t="str">
         <v/>
@@ -2586,46 +2586,46 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B40" t="str">
-        <v>Burtenshaw B,Kestemont M</v>
+        <v>Gunturi US,Ding X,Rho EH</v>
       </c>
       <c r="C40" t="str">
-        <v>Rapp R,Sharoff S,Zweigenbaum P</v>
+        <v/>
       </c>
       <c r="D40" t="str">
-        <v>A Dutch Dataset for Cross-lingual Multilabel Toxicity Detection</v>
+        <v>ToxVis: Enabling Interpretability of Implicit vs. Explicit Toxicity Detection Models with Interactive Visualization</v>
       </c>
       <c r="E40" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F40" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G40" t="str">
-        <v/>
+        <v>abs/2303.09402</v>
       </c>
       <c r="H40" t="str">
         <v/>
       </c>
       <c r="I40" t="str">
-        <v>75-79</v>
+        <v/>
       </c>
       <c r="J40" t="str">
-        <v>INCOMA Ltd.</v>
+        <v/>
       </c>
       <c r="K40" t="str">
-        <v>Proceedings of the 14th Workshop on Building and Using Comparable Corpora, BUCC@RANLP 2021, Online, September 6, 2021</v>
+        <v/>
       </c>
       <c r="L40" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M40" t="str">
-        <v>https://aclanthology.org/2021.bucc-1.10</v>
+        <v>https://doi.org/10.48550/arXiv.2303.09402;http://dx.doi.org/10.48550/ARXIV.2303.09402</v>
       </c>
       <c r="N40" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2303.09402</v>
       </c>
       <c r="O40" t="str">
         <v/>
@@ -2634,7 +2634,7 @@
         <v/>
       </c>
       <c r="Q40" t="str">
-        <v/>
+        <v>2303.09402</v>
       </c>
       <c r="R40" t="str">
         <v/>
@@ -2642,55 +2642,55 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B41" t="str">
-        <v>Weld H,Huang G,Lee J,Zhang T,Wang K,Guo X,Long S,Poon J,Han SC</v>
+        <v>Korotkova E,Chung IK</v>
       </c>
       <c r="C41" t="str">
-        <v>Zong C,Xia F,Li W,Navigli R</v>
+        <v/>
       </c>
       <c r="D41" t="str">
-        <v>CONDA: a CONtextual Dual-Annotated dataset for in-game toxicity understanding and detection</v>
+        <v>Beyond Toxic: Toxicity Detection Datasets are Not Enough for Brand Safety</v>
       </c>
       <c r="E41" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F41" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G41" t="str">
-        <v>ACL/IJCNLP 2021</v>
+        <v>abs/2303.15110</v>
       </c>
       <c r="H41" t="str">
         <v/>
       </c>
       <c r="I41" t="str">
-        <v>2406-2416</v>
+        <v/>
       </c>
       <c r="J41" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K41" t="str">
-        <v>Findings of the Association for Computational Linguistics: ACL/IJCNLP 2021, Online Event, August 1-6, 2021</v>
+        <v/>
       </c>
       <c r="L41" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M41" t="str">
-        <v>https://doi.org/10.18653/v1/2021.findings-acl.213;http://dx.doi.org/10.18653/V1/2021.FINDINGS-ACL.213</v>
+        <v>https://doi.org/10.48550/arXiv.2303.15110;http://dx.doi.org/10.48550/ARXIV.2303.15110</v>
       </c>
       <c r="N41" t="str">
-        <v>10.18653/V1/2021.FINDINGS-ACL.213</v>
+        <v>10.48550/ARXIV.2303.15110</v>
       </c>
       <c r="O41" t="str">
         <v/>
       </c>
       <c r="P41" t="str">
-        <v>Findings of ACL</v>
+        <v/>
       </c>
       <c r="Q41" t="str">
-        <v/>
+        <v>2303.15110</v>
       </c>
       <c r="R41" t="str">
         <v/>
@@ -2698,25 +2698,25 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B42" t="str">
-        <v>Lübbering M,Pielka M,Das K,Gebauer M,Ramamurthy R,Bauckhage C,Sifa R</v>
+        <v>Nada AH,Latif S,Qadir J</v>
       </c>
       <c r="C42" t="str">
         <v/>
       </c>
       <c r="D42" t="str">
-        <v>Toxicity Detection in Online Comments with Limited Data: A Comparative Analysis</v>
+        <v>Lightweight Toxicity Detection in Spoken Language: A Transformer-based Approach for Edge Devices</v>
       </c>
       <c r="E42" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F42" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G42" t="str">
-        <v/>
+        <v>abs/2304.11408</v>
       </c>
       <c r="H42" t="str">
         <v/>
@@ -2728,16 +2728,16 @@
         <v/>
       </c>
       <c r="K42" t="str">
-        <v>29th European Symposium on Artificial Neural Networks, Computational Intelligence and Machine Learning, ESANN 2021, Online event (Bruges, Belgium), October 6-8, 2021</v>
+        <v/>
       </c>
       <c r="L42" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M42" t="str">
-        <v>https://doi.org/10.14428/esann/2021.ES2021-48;http://dx.doi.org/10.14428/ESANN/2021.ES2021-48</v>
+        <v>https://doi.org/10.48550/arXiv.2304.11408;http://dx.doi.org/10.48550/ARXIV.2304.11408</v>
       </c>
       <c r="N42" t="str">
-        <v>10.14428/ESANN/2021.ES2021-48</v>
+        <v>10.48550/ARXIV.2304.11408</v>
       </c>
       <c r="O42" t="str">
         <v/>
@@ -2746,7 +2746,7 @@
         <v/>
       </c>
       <c r="Q42" t="str">
-        <v/>
+        <v>2304.11408</v>
       </c>
       <c r="R42" t="str">
         <v/>
@@ -2754,46 +2754,46 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B43" t="str">
-        <v>Bogoradnikova D,Makhnytkina O,Matveev A,Zakharova A,Akulov A</v>
+        <v>Althunayan H,Bahlas R,Alharbi M,Alsuwailem L,Aldayel A,Alahmadi R</v>
       </c>
       <c r="C43" t="str">
         <v/>
       </c>
       <c r="D43" t="str">
-        <v>Multilingual Sentiment Analysis and Toxicity Detection for Text Messages in Russian</v>
+        <v>Toxicity Inspector: A Framework to Evaluate Ground Truth in Toxicity Detection Through Feedback</v>
       </c>
       <c r="E43" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F43" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G43" t="str">
-        <v/>
+        <v>abs/2305.10433</v>
       </c>
       <c r="H43" t="str">
         <v/>
       </c>
       <c r="I43" t="str">
-        <v>55-64</v>
+        <v/>
       </c>
       <c r="J43" t="str">
-        <v>IEEE</v>
+        <v/>
       </c>
       <c r="K43" t="str">
-        <v>29th Conference of Open Innovations Association, FRUCT 2021, Tampere, Finland, May 12-14, 2021</v>
+        <v/>
       </c>
       <c r="L43" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M43" t="str">
-        <v>https://doi.org/10.23919/FRUCT52173.2021.9435584;http://dx.doi.org/10.23919/FRUCT52173.2021.9435584</v>
+        <v>https://doi.org/10.48550/arXiv.2305.10433;http://dx.doi.org/10.48550/ARXIV.2305.10433</v>
       </c>
       <c r="N43" t="str">
-        <v>10.23919/FRUCT52173.2021.9435584</v>
+        <v>10.48550/ARXIV.2305.10433</v>
       </c>
       <c r="O43" t="str">
         <v/>
@@ -2802,7 +2802,7 @@
         <v/>
       </c>
       <c r="Q43" t="str">
-        <v/>
+        <v>2305.10433</v>
       </c>
       <c r="R43" t="str">
         <v/>
@@ -2810,55 +2810,55 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B44" t="str">
-        <v>López AM</v>
+        <v>Raman V,Fleisig E,Klein D</v>
       </c>
       <c r="C44" t="str">
-        <v>Montes M,Rosso P,Gonzalo J,Aragón ME,Agerri R,Carmona MÁ,Mellado EÁ,Carrillo-de-Albornoz J,Chiruzzo L,de Freitas LA,Gómez-Adorno H,Gutiérrez Y,Zafra SM,Lima S,del Arco FM,Taulé M</v>
+        <v/>
       </c>
       <c r="D44" t="str">
-        <v>Alejandro Mosquera at DETOXIS 2021: Deep Learning Approaches to Toxicity Detection in Spanish Social Media Texts</v>
+        <v>Centering the Margins: Outlier-Based Identification of Harmed Populations in Toxicity Detection</v>
       </c>
       <c r="E44" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F44" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G44" t="str">
-        <v>2943</v>
+        <v>abs/2305.14735</v>
       </c>
       <c r="H44" t="str">
         <v/>
       </c>
       <c r="I44" t="str">
-        <v>573-579</v>
+        <v/>
       </c>
       <c r="J44" t="str">
-        <v>CEUR-WS.org</v>
+        <v/>
       </c>
       <c r="K44" t="str">
-        <v>Proceedings of the Iberian Languages Evaluation Forum (IberLEF 2021) co-located with the Conference of the Spanish Society for Natural Language Processing (SEPLN 2021), XXXVII International Conference of the Spanish Society for Natural Language Processing., Málaga, Spain, September, 2021</v>
+        <v/>
       </c>
       <c r="L44" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M44" t="str">
-        <v>https://ceur-ws.org/Vol-2943/detoxis_paper4.pdf</v>
+        <v>https://doi.org/10.48550/arXiv.2305.14735;http://dx.doi.org/10.48550/ARXIV.2305.14735</v>
       </c>
       <c r="N44" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2305.14735</v>
       </c>
       <c r="O44" t="str">
         <v/>
       </c>
       <c r="P44" t="str">
-        <v>CEUR Workshop Proceedings</v>
+        <v/>
       </c>
       <c r="Q44" t="str">
-        <v/>
+        <v>2305.14735</v>
       </c>
       <c r="R44" t="str">
         <v/>
@@ -2866,55 +2866,55 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B45" t="str">
-        <v>de Paula AF,Schlicht IB</v>
+        <v>Sarker J,Sultana S,Wilson SR,Bosu A</v>
       </c>
       <c r="C45" t="str">
-        <v>Montes M,Rosso P,Gonzalo J,Aragón ME,Agerri R,Carmona MÁ,Mellado EÁ,Carrillo-de-Albornoz J,Chiruzzo L,de Freitas LA,Gómez-Adorno H,Gutiérrez Y,Zafra SM,Lima S,del Arco FM,Taulé M</v>
+        <v/>
       </c>
       <c r="D45" t="str">
-        <v>AI-UPV at IberLEF-2021 DETOXIS task: Toxicity Detection in Immigration-Related Web News Comments Using Transformers and Statistical Models</v>
+        <v>ToxiSpanSE: An Explainable Toxicity Detection in Code Review Comments</v>
       </c>
       <c r="E45" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F45" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G45" t="str">
-        <v>2943</v>
+        <v>abs/2307.03386</v>
       </c>
       <c r="H45" t="str">
         <v/>
       </c>
       <c r="I45" t="str">
-        <v>547-566</v>
+        <v/>
       </c>
       <c r="J45" t="str">
-        <v>CEUR-WS.org</v>
+        <v/>
       </c>
       <c r="K45" t="str">
-        <v>Proceedings of the Iberian Languages Evaluation Forum (IberLEF 2021) co-located with the Conference of the Spanish Society for Natural Language Processing (SEPLN 2021), XXXVII International Conference of the Spanish Society for Natural Language Processing., Málaga, Spain, September, 2021</v>
+        <v/>
       </c>
       <c r="L45" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M45" t="str">
-        <v>https://ceur-ws.org/Vol-2943/detoxis_paper2.pdf</v>
+        <v>https://doi.org/10.48550/arXiv.2307.03386;http://dx.doi.org/10.48550/ARXIV.2307.03386</v>
       </c>
       <c r="N45" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2307.03386</v>
       </c>
       <c r="O45" t="str">
         <v/>
       </c>
       <c r="P45" t="str">
-        <v>CEUR Workshop Proceedings</v>
+        <v/>
       </c>
       <c r="Q45" t="str">
-        <v/>
+        <v>2307.03386</v>
       </c>
       <c r="R45" t="str">
         <v/>
@@ -2925,22 +2925,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B46" t="str">
-        <v>Nath M,Goswami S</v>
+        <v>Berezin S,Farahbakhsh R,Crespi N</v>
       </c>
       <c r="C46" t="str">
         <v/>
       </c>
       <c r="D46" t="str">
-        <v>Toxicity Detection in Drug Candidates using Simplified Molecular-Input Line-Entry System</v>
+        <v>No offence, Bert - I insult only humans! Multiple addressees sentence-level attack on toxicity detection neural network</v>
       </c>
       <c r="E46" t="str">
         <v>CoRR</v>
       </c>
       <c r="F46" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G46" t="str">
-        <v>abs/2101.10831</v>
+        <v>abs/2310.13099</v>
       </c>
       <c r="H46" t="str">
         <v/>
@@ -2955,13 +2955,13 @@
         <v/>
       </c>
       <c r="L46" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M46" t="str">
-        <v>https://arxiv.org/abs/2101.10831</v>
+        <v>https://doi.org/10.48550/arXiv.2310.13099;http://dx.doi.org/10.48550/ARXIV.2310.13099</v>
       </c>
       <c r="N46" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2310.13099</v>
       </c>
       <c r="O46" t="str">
         <v/>
@@ -2970,7 +2970,7 @@
         <v/>
       </c>
       <c r="Q46" t="str">
-        <v>2101.10831</v>
+        <v>2310.13099</v>
       </c>
       <c r="R46" t="str">
         <v/>
@@ -2981,22 +2981,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B47" t="str">
-        <v>Wright AP,Shaikh O,Park H,Epperson W,Ahmed M,Pinel S,Chau DH,Yang D</v>
+        <v>Lin Z,Wang Z,Tong Y,Wang Y,Guo Y,Wang Y,Shang J</v>
       </c>
       <c r="C47" t="str">
         <v/>
       </c>
       <c r="D47" t="str">
-        <v>RECAST: Enabling User Recourse and Interpretability of Toxicity Detection Models with Interactive Visualization</v>
+        <v>ToxicChat: Unveiling Hidden Challenges of Toxicity Detection in Real-World User-AI Conversation</v>
       </c>
       <c r="E47" t="str">
         <v>CoRR</v>
       </c>
       <c r="F47" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G47" t="str">
-        <v>abs/2102.04427</v>
+        <v>abs/2310.17389</v>
       </c>
       <c r="H47" t="str">
         <v/>
@@ -3011,13 +3011,13 @@
         <v/>
       </c>
       <c r="L47" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M47" t="str">
-        <v>https://arxiv.org/abs/2102.04427</v>
+        <v>https://doi.org/10.48550/arXiv.2310.17389;http://dx.doi.org/10.48550/ARXIV.2310.17389</v>
       </c>
       <c r="N47" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2310.17389</v>
       </c>
       <c r="O47" t="str">
         <v/>
@@ -3026,7 +3026,7 @@
         <v/>
       </c>
       <c r="Q47" t="str">
-        <v>2102.04427</v>
+        <v>2310.17389</v>
       </c>
       <c r="R47" t="str">
         <v/>
@@ -3037,22 +3037,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B48" t="str">
-        <v>Ghosh S,Baker DK,Jurgens D,Prabhakaran V</v>
+        <v>Cao YT,Domingo LF,Gilbert SA,Mazurek ML,Shilton K,Iii HD</v>
       </c>
       <c r="C48" t="str">
         <v/>
       </c>
       <c r="D48" t="str">
-        <v>Cross-geographic Bias Detection in Toxicity Modeling</v>
+        <v>Toxicity Detection is NOT all you Need: Measuring the Gaps to Supporting Volunteer Content Moderators</v>
       </c>
       <c r="E48" t="str">
         <v>CoRR</v>
       </c>
       <c r="F48" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G48" t="str">
-        <v>abs/2104.06999</v>
+        <v>abs/2311.07879</v>
       </c>
       <c r="H48" t="str">
         <v/>
@@ -3067,13 +3067,13 @@
         <v/>
       </c>
       <c r="L48" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M48" t="str">
-        <v>https://arxiv.org/abs/2104.06999</v>
+        <v>https://doi.org/10.48550/arXiv.2311.07879;http://dx.doi.org/10.48550/ARXIV.2311.07879</v>
       </c>
       <c r="N48" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2311.07879</v>
       </c>
       <c r="O48" t="str">
         <v/>
@@ -3082,7 +3082,7 @@
         <v/>
       </c>
       <c r="Q48" t="str">
-        <v>2104.06999</v>
+        <v>2311.07879</v>
       </c>
       <c r="R48" t="str">
         <v/>
@@ -3093,22 +3093,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B49" t="str">
-        <v>Weld H,Huang G,Lee J,Zhang T,Wang K,Guo X,Long S,Poon J,Han SC</v>
+        <v>Balestriero R,Cosentino R,Shekkizhar S</v>
       </c>
       <c r="C49" t="str">
         <v/>
       </c>
       <c r="D49" t="str">
-        <v>CONDA: a CONtextual Dual-Annotated dataset for in-game toxicity understanding and detection</v>
+        <v>Characterizing Large Language Model Geometry Solves Toxicity Detection and Generation</v>
       </c>
       <c r="E49" t="str">
         <v>CoRR</v>
       </c>
       <c r="F49" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G49" t="str">
-        <v>abs/2106.06213</v>
+        <v>abs/2312.01648</v>
       </c>
       <c r="H49" t="str">
         <v/>
@@ -3123,13 +3123,13 @@
         <v/>
       </c>
       <c r="L49" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M49" t="str">
-        <v>https://arxiv.org/abs/2106.06213</v>
+        <v>https://doi.org/10.48550/arXiv.2312.01648;http://dx.doi.org/10.48550/ARXIV.2312.01648</v>
       </c>
       <c r="N49" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2312.01648</v>
       </c>
       <c r="O49" t="str">
         <v/>
@@ -3138,7 +3138,7 @@
         <v/>
       </c>
       <c r="Q49" t="str">
-        <v>2106.06213</v>
+        <v>2312.01648</v>
       </c>
       <c r="R49" t="str">
         <v/>
@@ -3149,22 +3149,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B50" t="str">
-        <v>Anjum,Katarya R</v>
+        <v>Mishra S,Chatterjee P</v>
       </c>
       <c r="C50" t="str">
         <v/>
       </c>
       <c r="D50" t="str">
-        <v>Analysis of Online Toxicity Detection Using Machine Learning Approaches</v>
+        <v>Exploring ChatGPT for Toxicity Detection in GitHub</v>
       </c>
       <c r="E50" t="str">
         <v>CoRR</v>
       </c>
       <c r="F50" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G50" t="str">
-        <v>abs/2108.01062</v>
+        <v>abs/2312.13105</v>
       </c>
       <c r="H50" t="str">
         <v/>
@@ -3179,13 +3179,13 @@
         <v/>
       </c>
       <c r="L50" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="M50" t="str">
-        <v>https://arxiv.org/abs/2108.01062</v>
+        <v>https://doi.org/10.48550/arXiv.2312.13105;http://dx.doi.org/10.48550/ARXIV.2312.13105</v>
       </c>
       <c r="N50" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2312.13105</v>
       </c>
       <c r="O50" t="str">
         <v/>
@@ -3194,7 +3194,7 @@
         <v/>
       </c>
       <c r="Q50" t="str">
-        <v>2108.01062</v>
+        <v>2312.13105</v>
       </c>
       <c r="R50" t="str">
         <v/>
@@ -3205,28 +3205,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B51" t="str">
-        <v>de Paula AF,Schlicht IB</v>
+        <v>Al-Merekhi HA,Kwak H,Salminen J,Jansen BJ</v>
       </c>
       <c r="C51" t="str">
         <v/>
       </c>
       <c r="D51" t="str">
-        <v>AI-UPV at IberLEF-2021 DETOXIS task: Toxicity Detection in Immigration-Related Web News Comments Using Transformers and Statistical Models</v>
+        <v>PROVOKE: Toxicity trigger detection in conversations from the top 100 subreddits</v>
       </c>
       <c r="E51" t="str">
-        <v>CoRR</v>
+        <v>Data Inf. Manag.</v>
       </c>
       <c r="F51" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G51" t="str">
-        <v>abs/2111.04530</v>
+        <v>6</v>
       </c>
       <c r="H51" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="I51" t="str">
-        <v/>
+        <v>100019</v>
       </c>
       <c r="J51" t="str">
         <v/>
@@ -3235,13 +3235,13 @@
         <v/>
       </c>
       <c r="L51" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M51" t="str">
-        <v>https://arxiv.org/abs/2111.04530</v>
+        <v>https://doi.org/10.1016/j.dim.2022.100019;http://dx.doi.org/10.1016/J.DIM.2022.100019</v>
       </c>
       <c r="N51" t="str">
-        <v/>
+        <v>10.1016/J.DIM.2022.100019</v>
       </c>
       <c r="O51" t="str">
         <v/>
@@ -3250,7 +3250,7 @@
         <v/>
       </c>
       <c r="Q51" t="str">
-        <v>2111.04530</v>
+        <v/>
       </c>
       <c r="R51" t="str">
         <v/>
@@ -3267,19 +3267,19 @@
         <v/>
       </c>
       <c r="D52" t="str">
-        <v>Toxicity Detection can be Sensitive to the Conversational Context</v>
+        <v>Toxicity detection sensitive to conversational context</v>
       </c>
       <c r="E52" t="str">
-        <v>CoRR</v>
+        <v>First Monday</v>
       </c>
       <c r="F52" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G52" t="str">
-        <v>abs/2111.10223</v>
+        <v>27</v>
       </c>
       <c r="H52" t="str">
-        <v/>
+        <v>9</v>
       </c>
       <c r="I52" t="str">
         <v/>
@@ -3291,13 +3291,13 @@
         <v/>
       </c>
       <c r="L52" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M52" t="str">
-        <v>https://arxiv.org/abs/2111.10223</v>
+        <v>https://doi.org/10.5210/fm.v27i5.12285;http://dx.doi.org/10.5210/FM.V27I5.12285</v>
       </c>
       <c r="N52" t="str">
-        <v/>
+        <v>10.5210/FM.V27I5.12285</v>
       </c>
       <c r="O52" t="str">
         <v/>
@@ -3306,7 +3306,7 @@
         <v/>
       </c>
       <c r="Q52" t="str">
-        <v>2111.10223</v>
+        <v/>
       </c>
       <c r="R52" t="str">
         <v/>
@@ -3317,28 +3317,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B53" t="str">
-        <v>Ive J,Anuchitanukul A,Specia L</v>
+        <v>Gupta VK</v>
       </c>
       <c r="C53" t="str">
         <v/>
       </c>
       <c r="D53" t="str">
-        <v>Revisiting Contextual Toxicity Detection in Conversations</v>
+        <v>Toxicity detection of small drug molecules of the mitochondrial membrane potential signalling pathway using bagging-based ensemble learning</v>
       </c>
       <c r="E53" t="str">
-        <v>CoRR</v>
+        <v>Int. J. Data Min. Bioinform.</v>
       </c>
       <c r="F53" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G53" t="str">
-        <v>abs/2111.12447</v>
+        <v>27</v>
       </c>
       <c r="H53" t="str">
-        <v/>
+        <v>1/2/3</v>
       </c>
       <c r="I53" t="str">
-        <v/>
+        <v>201-220</v>
       </c>
       <c r="J53" t="str">
         <v/>
@@ -3347,13 +3347,13 @@
         <v/>
       </c>
       <c r="L53" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M53" t="str">
-        <v>https://arxiv.org/abs/2111.12447</v>
+        <v>https://doi.org/10.1504/IJDMB.2022.10052684;http://dx.doi.org/10.1504/IJDMB.2022.10052684</v>
       </c>
       <c r="N53" t="str">
-        <v/>
+        <v>10.1504/IJDMB.2022.10052684</v>
       </c>
       <c r="O53" t="str">
         <v/>
@@ -3362,7 +3362,7 @@
         <v/>
       </c>
       <c r="Q53" t="str">
-        <v>2111.12447</v>
+        <v/>
       </c>
       <c r="R53" t="str">
         <v/>
@@ -3373,28 +3373,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B54" t="str">
-        <v>Venkit PN,Wilson S</v>
+        <v>Lashkarashvili N,Tsintsadze M</v>
       </c>
       <c r="C54" t="str">
         <v/>
       </c>
       <c r="D54" t="str">
-        <v>Identification of Bias Against People with Disabilities in Sentiment Analysis and Toxicity Detection Models</v>
+        <v>Toxicity detection in online Georgian discussions</v>
       </c>
       <c r="E54" t="str">
-        <v>CoRR</v>
+        <v>Int. J. Inf. Manag. Data Insights</v>
       </c>
       <c r="F54" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G54" t="str">
-        <v>abs/2111.13259</v>
+        <v>2</v>
       </c>
       <c r="H54" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I54" t="str">
-        <v/>
+        <v>100062</v>
       </c>
       <c r="J54" t="str">
         <v/>
@@ -3403,13 +3403,13 @@
         <v/>
       </c>
       <c r="L54" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M54" t="str">
-        <v>https://arxiv.org/abs/2111.13259</v>
+        <v>https://doi.org/10.1016/j.jjimei.2022.100062;http://dx.doi.org/10.1016/J.JJIMEI.2022.100062</v>
       </c>
       <c r="N54" t="str">
-        <v/>
+        <v>10.1016/J.JJIMEI.2022.100062</v>
       </c>
       <c r="O54" t="str">
         <v/>
@@ -3418,7 +3418,7 @@
         <v/>
       </c>
       <c r="Q54" t="str">
-        <v>2111.13259</v>
+        <v/>
       </c>
       <c r="R54" t="str">
         <v/>
@@ -3426,46 +3426,46 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B55" t="str">
-        <v>Pavlopoulos J,Sorensen J,Dixon L,Thain N,Androutsopoulos I</v>
+        <v>Machová K,Mach M,Adamisín K</v>
       </c>
       <c r="C55" t="str">
-        <v>Jurafsky D,Chai J,Schluter N,Tetreault JR</v>
+        <v/>
       </c>
       <c r="D55" t="str">
-        <v>Toxicity Detection: Does Context Really Matter?</v>
+        <v>Machine Learning and Lexicon Approach to Texts Processing in the Detection of Degrees of Toxicity in Online Discussions</v>
       </c>
       <c r="E55" t="str">
-        <v/>
+        <v>Sensors</v>
       </c>
       <c r="F55" t="str">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G55" t="str">
-        <v/>
+        <v>22</v>
       </c>
       <c r="H55" t="str">
-        <v/>
+        <v>17</v>
       </c>
       <c r="I55" t="str">
-        <v>4296-4305</v>
+        <v>6468</v>
       </c>
       <c r="J55" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K55" t="str">
-        <v>Proceedings of the 58th Annual Meeting of the Association for Computational Linguistics, ACL 2020, Online, July 5-10, 2020</v>
+        <v/>
       </c>
       <c r="L55" t="str">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M55" t="str">
-        <v>https://doi.org/10.18653/v1/2020.acl-main.396;http://dx.doi.org/10.18653/V1/2020.ACL-MAIN.396</v>
+        <v>https://doi.org/10.3390/s22176468;http://dx.doi.org/10.3390/S22176468</v>
       </c>
       <c r="N55" t="str">
-        <v>10.18653/V1/2020.ACL-MAIN.396</v>
+        <v>10.3390/S22176468</v>
       </c>
       <c r="O55" t="str">
         <v/>
@@ -3485,19 +3485,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B56" t="str">
-        <v>Wright AP,Shaikh O,Park H,Epperson W,Ahmed M,Pinel S,Yang D,Chau DH</v>
+        <v>Lobo PR</v>
       </c>
       <c r="C56" t="str">
-        <v/>
+        <v>Conitzer V,Tasioulas J,Scheutz M,Calo R,Mara M,Zimmermann A</v>
       </c>
       <c r="D56" t="str">
-        <v>RECAST: Interactive Auditing of Automatic Toxicity Detection Models</v>
+        <v>Bias in Hate Speech and Toxicity Detection</v>
       </c>
       <c r="E56" t="str">
         <v/>
       </c>
       <c r="F56" t="str">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G56" t="str">
         <v/>
@@ -3506,22 +3506,22 @@
         <v/>
       </c>
       <c r="I56" t="str">
-        <v>80-82</v>
+        <v>910</v>
       </c>
       <c r="J56" t="str">
         <v>ACM</v>
       </c>
       <c r="K56" t="str">
-        <v>Chinese CHI 2020: The eighth International Workshop of Chinese CHI, Honolulu, HI, USA, April, 2020</v>
+        <v>AIES '22: AAAI/ACM Conference on AI, Ethics, and Society, Oxford, United Kingdom, May 19 - 21, 2021</v>
       </c>
       <c r="L56" t="str">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M56" t="str">
-        <v>https://doi.org/10.1145/3403676.3403691;http://dx.doi.org/10.1145/3403676.3403691</v>
+        <v>https://doi.org/10.1145/3514094.3539519;http://dx.doi.org/10.1145/3514094.3539519</v>
       </c>
       <c r="N56" t="str">
-        <v>10.1145/3403676.3403691</v>
+        <v>10.1145/3514094.3539519</v>
       </c>
       <c r="O56" t="str">
         <v/>
@@ -3538,43 +3538,43 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B57" t="str">
-        <v>Wright AP,Shaikh O,Park H,Epperson W,Ahmed M,Pinel S,Yang D,Chau DH</v>
+        <v>Lobo PR,Daga E,Alani H</v>
       </c>
       <c r="C57" t="str">
-        <v/>
+        <v>Budak C,Cha M,Quercia D</v>
       </c>
       <c r="D57" t="str">
-        <v>RECAST: Interactive Auditing of Automatic Toxicity Detection Models</v>
+        <v>Supporting Online Toxicity Detection with Knowledge Graphs</v>
       </c>
       <c r="E57" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F57" t="str">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G57" t="str">
-        <v>abs/2001.01819</v>
+        <v/>
       </c>
       <c r="H57" t="str">
         <v/>
       </c>
       <c r="I57" t="str">
-        <v/>
+        <v>1414-1418</v>
       </c>
       <c r="J57" t="str">
-        <v/>
+        <v>AAAI Press</v>
       </c>
       <c r="K57" t="str">
-        <v/>
+        <v>Proceedings of the Sixteenth International AAAI Conference on Web and Social Media, ICWSM 2022, Atlanta, Georgia, USA, June 6-9, 2022</v>
       </c>
       <c r="L57" t="str">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M57" t="str">
-        <v>http://arxiv.org/abs/2001.01819</v>
+        <v>https://ojs.aaai.org/index.php/ICWSM/article/view/19398</v>
       </c>
       <c r="N57" t="str">
         <v/>
@@ -3586,7 +3586,7 @@
         <v/>
       </c>
       <c r="Q57" t="str">
-        <v>2001.01819</v>
+        <v/>
       </c>
       <c r="R57" t="str">
         <v/>
@@ -3594,46 +3594,46 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B58" t="str">
-        <v>Pavlopoulos J,Sorensen J,Dixon L,Thain N,Androutsopoulos I</v>
+        <v>Cheng L,Mosallanezhad A,Silva YN,Hall DL,Liu H</v>
       </c>
       <c r="C58" t="str">
-        <v/>
+        <v>Amigó E,Castells P,Gonzalo J,Carterette B,Culpepper JS,Kazai G</v>
       </c>
       <c r="D58" t="str">
-        <v>Toxicity Detection: Does Context Really Matter?</v>
+        <v>Bias Mitigation for Toxicity Detection via Sequential Decisions</v>
       </c>
       <c r="E58" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F58" t="str">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G58" t="str">
-        <v>abs/2006.00998</v>
+        <v/>
       </c>
       <c r="H58" t="str">
         <v/>
       </c>
       <c r="I58" t="str">
-        <v/>
+        <v>1750-1760</v>
       </c>
       <c r="J58" t="str">
-        <v/>
+        <v>ACM</v>
       </c>
       <c r="K58" t="str">
-        <v/>
+        <v>SIGIR '22: The 45th International ACM SIGIR Conference on Research and Development in Information Retrieval, Madrid, Spain, July 11 - 15, 2022</v>
       </c>
       <c r="L58" t="str">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M58" t="str">
-        <v>https://arxiv.org/abs/2006.00998</v>
+        <v>https://doi.org/10.1145/3477495.3531945;http://dx.doi.org/10.1145/3477495.3531945</v>
       </c>
       <c r="N58" t="str">
-        <v/>
+        <v>10.1145/3477495.3531945</v>
       </c>
       <c r="O58" t="str">
         <v/>
@@ -3642,7 +3642,7 @@
         <v/>
       </c>
       <c r="Q58" t="str">
-        <v>2006.00998</v>
+        <v/>
       </c>
       <c r="R58" t="str">
         <v/>
@@ -3653,28 +3653,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B59" t="str">
-        <v>Saini B,Srivastava S,Bajpai AK</v>
+        <v>Jhaveri M,Ramaiya D,Chadha HS</v>
       </c>
       <c r="C59" t="str">
         <v/>
       </c>
       <c r="D59" t="str">
-        <v>Robust Automated detection of Nanocarriers' Toxicity using Microscopic Image Analysis</v>
+        <v>Toxicity Detection for Indic Multilingual Social Media Content</v>
       </c>
       <c r="E59" t="str">
-        <v>EAI Endorsed Trans. Scalable Inf. Syst.</v>
+        <v>CoRR</v>
       </c>
       <c r="F59" t="str">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G59" t="str">
-        <v>6</v>
+        <v>abs/2201.00598</v>
       </c>
       <c r="H59" t="str">
-        <v>20</v>
+        <v/>
       </c>
       <c r="I59" t="str">
-        <v>e6</v>
+        <v/>
       </c>
       <c r="J59" t="str">
         <v/>
@@ -3683,13 +3683,13 @@
         <v/>
       </c>
       <c r="L59" t="str">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M59" t="str">
-        <v>https://doi.org/10.4108/eai.13-7-2018.156593;http://dx.doi.org/10.4108/EAI.13-7-2018.156593</v>
+        <v>https://arxiv.org/abs/2201.00598</v>
       </c>
       <c r="N59" t="str">
-        <v>10.4108/EAI.13-7-2018.156593</v>
+        <v/>
       </c>
       <c r="O59" t="str">
         <v/>
@@ -3698,7 +3698,7 @@
         <v/>
       </c>
       <c r="Q59" t="str">
-        <v/>
+        <v>2201.00598</v>
       </c>
       <c r="R59" t="str">
         <v/>
@@ -3706,46 +3706,46 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B60" t="str">
-        <v>Gao K,Gao F,Du L,He C,Wan H,Wang P</v>
+        <v>Wang YS,Chang Y</v>
       </c>
       <c r="C60" t="str">
         <v/>
       </c>
       <c r="D60" t="str">
-        <v>Multifunctional SH-SY5Y-based biomimetic sensor for integrated detection of olfaction, gustation and toxicity</v>
+        <v>Toxicity Detection with Generative Prompt-based Inference</v>
       </c>
       <c r="E60" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F60" t="str">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G60" t="str">
-        <v/>
+        <v>abs/2205.12390</v>
       </c>
       <c r="H60" t="str">
         <v/>
       </c>
       <c r="I60" t="str">
-        <v>1-3</v>
+        <v/>
       </c>
       <c r="J60" t="str">
-        <v>IEEE</v>
+        <v/>
       </c>
       <c r="K60" t="str">
-        <v>IEEE International Symposium on Olfaction and Electronic Nose, ISOEN 2019, Fukuoka, Japan, May 26-29, 2019</v>
+        <v/>
       </c>
       <c r="L60" t="str">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M60" t="str">
-        <v>https://doi.org/10.1109/ISOEN.2019.8823301;http://dx.doi.org/10.1109/ISOEN.2019.8823301</v>
+        <v>https://doi.org/10.48550/arXiv.2205.12390;http://dx.doi.org/10.48550/ARXIV.2205.12390</v>
       </c>
       <c r="N60" t="str">
-        <v>10.1109/ISOEN.2019.8823301</v>
+        <v>10.48550/ARXIV.2205.12390</v>
       </c>
       <c r="O60" t="str">
         <v/>
@@ -3754,7 +3754,7 @@
         <v/>
       </c>
       <c r="Q60" t="str">
-        <v/>
+        <v>2205.12390</v>
       </c>
       <c r="R60" t="str">
         <v/>
@@ -3765,28 +3765,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B61" t="str">
-        <v>Noever D</v>
+        <v>J AK,Abiramy S,Trueman TE,Cambria E</v>
       </c>
       <c r="C61" t="str">
         <v/>
       </c>
       <c r="D61" t="str">
-        <v>Machine Learning Suites for Online Toxicity Detection</v>
+        <v>Comment toxicity detection via a multichannel convolutional bidirectional gated recurrent unit</v>
       </c>
       <c r="E61" t="str">
-        <v>CoRR</v>
+        <v>Neurocomputing</v>
       </c>
       <c r="F61" t="str">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G61" t="str">
-        <v>abs/1810.01869</v>
+        <v>441</v>
       </c>
       <c r="H61" t="str">
         <v/>
       </c>
       <c r="I61" t="str">
-        <v/>
+        <v>272-278</v>
       </c>
       <c r="J61" t="str">
         <v/>
@@ -3795,13 +3795,13 @@
         <v/>
       </c>
       <c r="L61" t="str">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="M61" t="str">
-        <v>http://arxiv.org/abs/1810.01869</v>
+        <v>https://doi.org/10.1016/j.neucom.2021.02.023;http://dx.doi.org/10.1016/J.NEUCOM.2021.02.023</v>
       </c>
       <c r="N61" t="str">
-        <v/>
+        <v>10.1016/J.NEUCOM.2021.02.023</v>
       </c>
       <c r="O61" t="str">
         <v/>
@@ -3810,7 +3810,7 @@
         <v/>
       </c>
       <c r="Q61" t="str">
-        <v>1810.01869</v>
+        <v/>
       </c>
       <c r="R61" t="str">
         <v/>
@@ -3821,28 +3821,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B62" t="str">
-        <v>Zhou T,Han H,Liu P,Xiong J,Tian F,Li X</v>
+        <v>Kabakus AT</v>
       </c>
       <c r="C62" t="str">
         <v/>
       </c>
       <c r="D62" t="str">
-        <v>Microbial Fuels Cell-Based Biosensor for Toxicity Detection: A Review</v>
+        <v>Towards the Importance of the Type of Deep Neural Network and Employment of Pre-trained Word Vectors for Toxicity Detection: An Experimental Study</v>
       </c>
       <c r="E62" t="str">
-        <v>Sensors</v>
+        <v>J. Web Eng.</v>
       </c>
       <c r="F62" t="str">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="G62" t="str">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H62" t="str">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I62" t="str">
-        <v>2230</v>
+        <v/>
       </c>
       <c r="J62" t="str">
         <v/>
@@ -3851,13 +3851,13 @@
         <v/>
       </c>
       <c r="L62" t="str">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="M62" t="str">
-        <v>https://doi.org/10.3390/s17102230;http://dx.doi.org/10.3390/S17102230</v>
+        <v>https://doi.org/10.13052/jwe1540-9589.2082;http://dx.doi.org/10.13052/JWE1540-9589.2082</v>
       </c>
       <c r="N62" t="str">
-        <v>10.3390/S17102230</v>
+        <v>10.13052/JWE1540-9589.2082</v>
       </c>
       <c r="O62" t="str">
         <v/>
@@ -3874,46 +3874,46 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B63" t="str">
-        <v>Märtens M,Shen S,Iosup A,Kuipers FA</v>
+        <v>Wright AP,Shaikh O,Park H,Epperson W,Ahmed M,Pinel S,Chau DH,Yang D</v>
       </c>
       <c r="C63" t="str">
         <v/>
       </c>
       <c r="D63" t="str">
-        <v>Toxicity detection in multiplayer online games</v>
+        <v>RECAST: Enabling User Recourse and Interpretability of Toxicity Detection Models with Interactive Visualization</v>
       </c>
       <c r="E63" t="str">
-        <v/>
+        <v>Proc. ACM Hum. Comput. Interact.</v>
       </c>
       <c r="F63" t="str">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="G63" t="str">
-        <v/>
+        <v>5</v>
       </c>
       <c r="H63" t="str">
-        <v/>
+        <v>CSCW1</v>
       </c>
       <c r="I63" t="str">
-        <v>1-6</v>
+        <v>181:1-181:26</v>
       </c>
       <c r="J63" t="str">
-        <v>IEEE</v>
+        <v/>
       </c>
       <c r="K63" t="str">
-        <v>2015 International Workshop on Network and Systems Support for Games, NetGames 2015, Zagreb, Croatia, December 3-4, 2015</v>
+        <v/>
       </c>
       <c r="L63" t="str">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="M63" t="str">
-        <v>https://doi.org/10.1109/NetGames.2015.7382991;http://dx.doi.org/10.1109/NETGAMES.2015.7382991</v>
+        <v>https://doi.org/10.1145/3449280;http://dx.doi.org/10.1145/3449280</v>
       </c>
       <c r="N63" t="str">
-        <v>10.1109/NETGAMES.2015.7382991</v>
+        <v>10.1145/3449280</v>
       </c>
       <c r="O63" t="str">
         <v/>
@@ -3933,28 +3933,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B64" t="str">
-        <v>Zhang Q,Ding J,Kou L,Qin W</v>
+        <v>Taulé M,Ariza A,Nofre M,Amigó E,Rosso P</v>
       </c>
       <c r="C64" t="str">
         <v/>
       </c>
       <c r="D64" t="str">
-        <v>A Potentiometric Flow Biosensor Based on Ammonia-Oxidizing Bacteriafor the Detection of Toxicity in Water</v>
+        <v>Overview of DETOXIS at IberLEF 2021: DEtection of TOXicity in comments In Spanish</v>
       </c>
       <c r="E64" t="str">
-        <v>Sensors</v>
+        <v>Proces. del Leng. Natural</v>
       </c>
       <c r="F64" t="str">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="G64" t="str">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H64" t="str">
-        <v>6</v>
+        <v/>
       </c>
       <c r="I64" t="str">
-        <v>6936-6945</v>
+        <v>209-221</v>
       </c>
       <c r="J64" t="str">
         <v/>
@@ -3963,13 +3963,13 @@
         <v/>
       </c>
       <c r="L64" t="str">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="M64" t="str">
-        <v>https://doi.org/10.3390/s130606936;http://dx.doi.org/10.3390/S130606936</v>
+        <v>http://journal.sepln.org/sepln/ojs/ojs/index.php/pln/article/view/6390</v>
       </c>
       <c r="N64" t="str">
-        <v>10.3390/S130606936</v>
+        <v/>
       </c>
       <c r="O64" t="str">
         <v/>
@@ -3986,46 +3986,46 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B65" t="str">
-        <v>Covington JA,Wedlake L,Andreyev J,Ouaret N,Thomas MG,Nwokolo CU,Bardhan KD,Arasaradnam RP</v>
+        <v>Burtenshaw B,Kestemont M</v>
       </c>
       <c r="C65" t="str">
-        <v/>
+        <v>Rapp R,Sharoff S,Zweigenbaum P</v>
       </c>
       <c r="D65" t="str">
-        <v>The Detection of Patients at Risk of Gastrointestinal Toxicity during Pelvic Radiotherapy by Electronic Nose and FAIMS: A Pilot Study</v>
+        <v>A Dutch Dataset for Cross-lingual Multilabel Toxicity Detection</v>
       </c>
       <c r="E65" t="str">
-        <v>Sensors</v>
+        <v/>
       </c>
       <c r="F65" t="str">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="G65" t="str">
-        <v>12</v>
+        <v/>
       </c>
       <c r="H65" t="str">
-        <v>10</v>
+        <v/>
       </c>
       <c r="I65" t="str">
-        <v>13002-13018</v>
+        <v>75-79</v>
       </c>
       <c r="J65" t="str">
-        <v/>
+        <v>INCOMA Ltd.</v>
       </c>
       <c r="K65" t="str">
-        <v/>
+        <v>Proceedings of the 14th Workshop on Building and Using Comparable Corpora, BUCC@RANLP 2021, Online, September 6, 2021</v>
       </c>
       <c r="L65" t="str">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="M65" t="str">
-        <v>https://doi.org/10.3390/s121013002;http://dx.doi.org/10.3390/S121013002</v>
+        <v>https://aclanthology.org/2021.bucc-1.10</v>
       </c>
       <c r="N65" t="str">
-        <v>10.3390/S121013002</v>
+        <v/>
       </c>
       <c r="O65" t="str">
         <v/>
@@ -4042,52 +4042,52 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B66" t="str">
-        <v>Pireddu L,Michielan L,Floris M,Rodriguez-Tomé P,Moro S</v>
+        <v>Weld H,Huang G,Lee J,Zhang T,Wang K,Guo X,Long S,Poon J,Han SC</v>
       </c>
       <c r="C66" t="str">
-        <v/>
+        <v>Zong C,Xia F,Li W,Navigli R</v>
       </c>
       <c r="D66" t="str">
-        <v>Fingerprint-based detection of acute aquatic toxicity</v>
+        <v>CONDA: a CONtextual Dual-Annotated dataset for in-game toxicity understanding and detection</v>
       </c>
       <c r="E66" t="str">
-        <v>J. Cheminformatics</v>
+        <v/>
       </c>
       <c r="F66" t="str">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="G66" t="str">
-        <v>2</v>
+        <v>ACL/IJCNLP 2021</v>
       </c>
       <c r="H66" t="str">
-        <v>S-1</v>
+        <v/>
       </c>
       <c r="I66" t="str">
-        <v>46</v>
+        <v>2406-2416</v>
       </c>
       <c r="J66" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K66" t="str">
-        <v/>
+        <v>Findings of the Association for Computational Linguistics: ACL/IJCNLP 2021, Online Event, August 1-6, 2021</v>
       </c>
       <c r="L66" t="str">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="M66" t="str">
-        <v>https://doi.org/10.1186/1758-2946-2-S1-P46;http://dx.doi.org/10.1186/1758-2946-2-S1-P46</v>
+        <v>https://doi.org/10.18653/v1/2021.findings-acl.213;http://dx.doi.org/10.18653/V1/2021.FINDINGS-ACL.213</v>
       </c>
       <c r="N66" t="str">
-        <v>10.1186/1758-2946-2-S1-P46</v>
+        <v>10.18653/V1/2021.FINDINGS-ACL.213</v>
       </c>
       <c r="O66" t="str">
         <v/>
       </c>
       <c r="P66" t="str">
-        <v/>
+        <v>Findings of ACL</v>
       </c>
       <c r="Q66" t="str">
         <v/>
@@ -4101,19 +4101,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B67" t="str">
-        <v>Kim SY,Kwon KY,Lee WD</v>
+        <v>Lübbering M,Pielka M,Das K,Gebauer M,Ramamurthy R,Bauckhage C,Sifa R</v>
       </c>
       <c r="C67" t="str">
-        <v>Kim J,Delen D,Park J,Ko F,Rui C,Lee JH,Wang J,Kou G</v>
+        <v/>
       </c>
       <c r="D67" t="str">
-        <v>A Biological Early Warning System for Toxicity Detection</v>
+        <v>Toxicity Detection in Online Comments with Limited Data: A Comparative Analysis</v>
       </c>
       <c r="E67" t="str">
         <v/>
       </c>
       <c r="F67" t="str">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="G67" t="str">
         <v/>
@@ -4122,22 +4122,22 @@
         <v/>
       </c>
       <c r="I67" t="str">
-        <v>1157-1160</v>
+        <v/>
       </c>
       <c r="J67" t="str">
-        <v>IEEE Computer Society</v>
+        <v/>
       </c>
       <c r="K67" t="str">
-        <v>International Conference on Networked Computing and Advanced Information Management, NCM 2009, Fifth International Joint Conference on INC, IMS and IDC: INC 2009: International Conference on Networked Computing, IMS 2009: International Conference on Advanced Information Management and Service, IDC 2009: International Conference on Digital Content, Multimedia Technology and its Applications, Seoul, Korea, August 25-27, 2009</v>
+        <v>29th European Symposium on Artificial Neural Networks, Computational Intelligence and Machine Learning, ESANN 2021, Online event (Bruges, Belgium), October 6-8, 2021</v>
       </c>
       <c r="L67" t="str">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="M67" t="str">
-        <v>https://doi.org/10.1109/NCM.2009.358;http://dx.doi.org/10.1109/NCM.2009.358</v>
+        <v>https://doi.org/10.14428/esann/2021.ES2021-48;http://dx.doi.org/10.14428/ESANN/2021.ES2021-48</v>
       </c>
       <c r="N67" t="str">
-        <v>10.1109/NCM.2009.358</v>
+        <v>10.14428/ESANN/2021.ES2021-48</v>
       </c>
       <c r="O67" t="str">
         <v/>
@@ -4154,46 +4154,46 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B68" t="str">
-        <v>Cruz-Monteagudo M,Cordeiro MN,Borges F</v>
+        <v>Bogoradnikova D,Makhnytkina O,Matveev A,Zakharova A,Akulov A</v>
       </c>
       <c r="C68" t="str">
         <v/>
       </c>
       <c r="D68" t="str">
-        <v>Computational chemistry approach for the early detection of drug-induced idiosyncratic liver toxicity</v>
+        <v>Multilingual Sentiment Analysis and Toxicity Detection for Text Messages in Russian</v>
       </c>
       <c r="E68" t="str">
-        <v>J. Comput. Chem.</v>
+        <v/>
       </c>
       <c r="F68" t="str">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="G68" t="str">
-        <v>29</v>
+        <v/>
       </c>
       <c r="H68" t="str">
-        <v>4</v>
+        <v/>
       </c>
       <c r="I68" t="str">
-        <v>533-549</v>
+        <v>55-64</v>
       </c>
       <c r="J68" t="str">
-        <v/>
+        <v>IEEE</v>
       </c>
       <c r="K68" t="str">
-        <v/>
+        <v>29th Conference of Open Innovations Association, FRUCT 2021, Tampere, Finland, May 12-14, 2021</v>
       </c>
       <c r="L68" t="str">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="M68" t="str">
-        <v>https://doi.org/10.1002/jcc.20812;http://dx.doi.org/10.1002/JCC.20812</v>
+        <v>https://doi.org/10.23919/FRUCT52173.2021.9435584;http://dx.doi.org/10.23919/FRUCT52173.2021.9435584</v>
       </c>
       <c r="N68" t="str">
-        <v>10.1002/JCC.20812</v>
+        <v>10.23919/FRUCT52173.2021.9435584</v>
       </c>
       <c r="O68" t="str">
         <v/>
@@ -4210,63 +4210,1575 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Silva TS,Jayakar G,Grisso P,Chew EY,Hotaling N,Cukras CA</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Mazurowski MA,Drukker K</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Automatic detection of ellipsoid zone loss due to Hydroxychloroquine retinal toxicity from SD-OCT imaging</v>
+      </c>
+      <c r="E69" t="str">
+        <v/>
+      </c>
+      <c r="F69" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G69" t="str">
+        <v>11597</v>
+      </c>
+      <c r="H69" t="str">
+        <v/>
+      </c>
+      <c r="I69" t="str">
+        <v/>
+      </c>
+      <c r="J69" t="str">
+        <v>SPIE</v>
+      </c>
+      <c r="K69" t="str">
+        <v>Medical Imaging 2021: Computer-Aided Diagnosis, Online, February 15-20, 2021</v>
+      </c>
+      <c r="L69" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M69" t="str">
+        <v>https://doi.org/10.1117/12.2582153;http://dx.doi.org/10.1117/12.2582153</v>
+      </c>
+      <c r="N69" t="str">
+        <v>10.1117/12.2582153</v>
+      </c>
+      <c r="O69" t="str">
+        <v/>
+      </c>
+      <c r="P69" t="str">
+        <v>SPIE Proceedings</v>
+      </c>
+      <c r="Q69" t="str">
+        <v/>
+      </c>
+      <c r="R69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B70" t="str">
+        <v>López AM</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Montes M,Rosso P,Gonzalo J,Aragón ME,Agerri R,Álvarez-Carmona MÁ,Mellado EÁ,Carrillo-de-Albornoz J,Chiruzzo L,de Freitas LA,Gómez-Adorno H,Gutiérrez Y,Jiménez-Zafra SM,Lima S,del Arco FM,Taulé M</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Alejandro Mosquera at DETOXIS 2021: Deep Learning Approaches to Toxicity Detection in Spanish Social Media Texts</v>
+      </c>
+      <c r="E70" t="str">
+        <v/>
+      </c>
+      <c r="F70" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G70" t="str">
+        <v>2943</v>
+      </c>
+      <c r="H70" t="str">
+        <v/>
+      </c>
+      <c r="I70" t="str">
+        <v>573-579</v>
+      </c>
+      <c r="J70" t="str">
+        <v>CEUR-WS.org</v>
+      </c>
+      <c r="K70" t="str">
+        <v>Proceedings of the Iberian Languages Evaluation Forum (IberLEF 2021) co-located with the Conference of the Spanish Society for Natural Language Processing (SEPLN 2021), XXXVII International Conference of the Spanish Society for Natural Language Processing., Málaga, Spain, September, 2021</v>
+      </c>
+      <c r="L70" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M70" t="str">
+        <v>https://ceur-ws.org/Vol-2943/detoxis_paper4.pdf</v>
+      </c>
+      <c r="N70" t="str">
+        <v/>
+      </c>
+      <c r="O70" t="str">
+        <v/>
+      </c>
+      <c r="P70" t="str">
+        <v>CEUR Workshop Proceedings</v>
+      </c>
+      <c r="Q70" t="str">
+        <v/>
+      </c>
+      <c r="R70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B71" t="str">
+        <v>de Paula AF,Schlicht IB</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Montes M,Rosso P,Gonzalo J,Aragón ME,Agerri R,Álvarez-Carmona MÁ,Mellado EÁ,Carrillo-de-Albornoz J,Chiruzzo L,de Freitas LA,Gómez-Adorno H,Gutiérrez Y,Jiménez-Zafra SM,Lima S,del Arco FM,Taulé M</v>
+      </c>
+      <c r="D71" t="str">
+        <v>AI-UPV at IberLEF-2021 DETOXIS task: Toxicity Detection in Immigration-Related Web News Comments Using Transformers and Statistical Models</v>
+      </c>
+      <c r="E71" t="str">
+        <v/>
+      </c>
+      <c r="F71" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G71" t="str">
+        <v>2943</v>
+      </c>
+      <c r="H71" t="str">
+        <v/>
+      </c>
+      <c r="I71" t="str">
+        <v>547-566</v>
+      </c>
+      <c r="J71" t="str">
+        <v>CEUR-WS.org</v>
+      </c>
+      <c r="K71" t="str">
+        <v>Proceedings of the Iberian Languages Evaluation Forum (IberLEF 2021) co-located with the Conference of the Spanish Society for Natural Language Processing (SEPLN 2021), XXXVII International Conference of the Spanish Society for Natural Language Processing., Málaga, Spain, September, 2021</v>
+      </c>
+      <c r="L71" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M71" t="str">
+        <v>https://ceur-ws.org/Vol-2943/detoxis_paper2.pdf</v>
+      </c>
+      <c r="N71" t="str">
+        <v/>
+      </c>
+      <c r="O71" t="str">
+        <v/>
+      </c>
+      <c r="P71" t="str">
+        <v>CEUR Workshop Proceedings</v>
+      </c>
+      <c r="Q71" t="str">
+        <v/>
+      </c>
+      <c r="R71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Nath M,Goswami S</v>
+      </c>
+      <c r="C72" t="str">
+        <v/>
+      </c>
+      <c r="D72" t="str">
+        <v>Toxicity Detection in Drug Candidates using Simplified Molecular-Input Line-Entry System</v>
+      </c>
+      <c r="E72" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F72" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G72" t="str">
+        <v>abs/2101.10831</v>
+      </c>
+      <c r="H72" t="str">
+        <v/>
+      </c>
+      <c r="I72" t="str">
+        <v/>
+      </c>
+      <c r="J72" t="str">
+        <v/>
+      </c>
+      <c r="K72" t="str">
+        <v/>
+      </c>
+      <c r="L72" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M72" t="str">
+        <v>https://arxiv.org/abs/2101.10831</v>
+      </c>
+      <c r="N72" t="str">
+        <v/>
+      </c>
+      <c r="O72" t="str">
+        <v/>
+      </c>
+      <c r="P72" t="str">
+        <v/>
+      </c>
+      <c r="Q72" t="str">
+        <v>2101.10831</v>
+      </c>
+      <c r="R72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Wright AP,Shaikh O,Park H,Epperson W,Ahmed M,Pinel S,Chau DH,Yang D</v>
+      </c>
+      <c r="C73" t="str">
+        <v/>
+      </c>
+      <c r="D73" t="str">
+        <v>RECAST: Enabling User Recourse and Interpretability of Toxicity Detection Models with Interactive Visualization</v>
+      </c>
+      <c r="E73" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F73" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G73" t="str">
+        <v>abs/2102.04427</v>
+      </c>
+      <c r="H73" t="str">
+        <v/>
+      </c>
+      <c r="I73" t="str">
+        <v/>
+      </c>
+      <c r="J73" t="str">
+        <v/>
+      </c>
+      <c r="K73" t="str">
+        <v/>
+      </c>
+      <c r="L73" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M73" t="str">
+        <v>https://arxiv.org/abs/2102.04427</v>
+      </c>
+      <c r="N73" t="str">
+        <v/>
+      </c>
+      <c r="O73" t="str">
+        <v/>
+      </c>
+      <c r="P73" t="str">
+        <v/>
+      </c>
+      <c r="Q73" t="str">
+        <v>2102.04427</v>
+      </c>
+      <c r="R73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Ghosh S,Baker DK,Jurgens D,Prabhakaran V</v>
+      </c>
+      <c r="C74" t="str">
+        <v/>
+      </c>
+      <c r="D74" t="str">
+        <v>Cross-geographic Bias Detection in Toxicity Modeling</v>
+      </c>
+      <c r="E74" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F74" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G74" t="str">
+        <v>abs/2104.06999</v>
+      </c>
+      <c r="H74" t="str">
+        <v/>
+      </c>
+      <c r="I74" t="str">
+        <v/>
+      </c>
+      <c r="J74" t="str">
+        <v/>
+      </c>
+      <c r="K74" t="str">
+        <v/>
+      </c>
+      <c r="L74" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M74" t="str">
+        <v>https://arxiv.org/abs/2104.06999</v>
+      </c>
+      <c r="N74" t="str">
+        <v/>
+      </c>
+      <c r="O74" t="str">
+        <v/>
+      </c>
+      <c r="P74" t="str">
+        <v/>
+      </c>
+      <c r="Q74" t="str">
+        <v>2104.06999</v>
+      </c>
+      <c r="R74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Weld H,Huang G,Lee J,Zhang T,Wang K,Guo X,Long S,Poon J,Han SC</v>
+      </c>
+      <c r="C75" t="str">
+        <v/>
+      </c>
+      <c r="D75" t="str">
+        <v>CONDA: a CONtextual Dual-Annotated dataset for in-game toxicity understanding and detection</v>
+      </c>
+      <c r="E75" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F75" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G75" t="str">
+        <v>abs/2106.06213</v>
+      </c>
+      <c r="H75" t="str">
+        <v/>
+      </c>
+      <c r="I75" t="str">
+        <v/>
+      </c>
+      <c r="J75" t="str">
+        <v/>
+      </c>
+      <c r="K75" t="str">
+        <v/>
+      </c>
+      <c r="L75" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M75" t="str">
+        <v>https://arxiv.org/abs/2106.06213</v>
+      </c>
+      <c r="N75" t="str">
+        <v/>
+      </c>
+      <c r="O75" t="str">
+        <v/>
+      </c>
+      <c r="P75" t="str">
+        <v/>
+      </c>
+      <c r="Q75" t="str">
+        <v>2106.06213</v>
+      </c>
+      <c r="R75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Anjum,Katarya R</v>
+      </c>
+      <c r="C76" t="str">
+        <v/>
+      </c>
+      <c r="D76" t="str">
+        <v>Analysis of Online Toxicity Detection Using Machine Learning Approaches</v>
+      </c>
+      <c r="E76" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F76" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G76" t="str">
+        <v>abs/2108.01062</v>
+      </c>
+      <c r="H76" t="str">
+        <v/>
+      </c>
+      <c r="I76" t="str">
+        <v/>
+      </c>
+      <c r="J76" t="str">
+        <v/>
+      </c>
+      <c r="K76" t="str">
+        <v/>
+      </c>
+      <c r="L76" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M76" t="str">
+        <v>https://arxiv.org/abs/2108.01062</v>
+      </c>
+      <c r="N76" t="str">
+        <v/>
+      </c>
+      <c r="O76" t="str">
+        <v/>
+      </c>
+      <c r="P76" t="str">
+        <v/>
+      </c>
+      <c r="Q76" t="str">
+        <v>2108.01062</v>
+      </c>
+      <c r="R76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B77" t="str">
+        <v>de Paula AF,Schlicht IB</v>
+      </c>
+      <c r="C77" t="str">
+        <v/>
+      </c>
+      <c r="D77" t="str">
+        <v>AI-UPV at IberLEF-2021 DETOXIS task: Toxicity Detection in Immigration-Related Web News Comments Using Transformers and Statistical Models</v>
+      </c>
+      <c r="E77" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F77" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G77" t="str">
+        <v>abs/2111.04530</v>
+      </c>
+      <c r="H77" t="str">
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <v/>
+      </c>
+      <c r="J77" t="str">
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <v/>
+      </c>
+      <c r="L77" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M77" t="str">
+        <v>https://arxiv.org/abs/2111.04530</v>
+      </c>
+      <c r="N77" t="str">
+        <v/>
+      </c>
+      <c r="O77" t="str">
+        <v/>
+      </c>
+      <c r="P77" t="str">
+        <v/>
+      </c>
+      <c r="Q77" t="str">
+        <v>2111.04530</v>
+      </c>
+      <c r="R77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Xenos A,Pavlopoulos J,Androutsopoulos I,Dixon L,Sorensen J,Laugier L</v>
+      </c>
+      <c r="C78" t="str">
+        <v/>
+      </c>
+      <c r="D78" t="str">
+        <v>Toxicity Detection can be Sensitive to the Conversational Context</v>
+      </c>
+      <c r="E78" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F78" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G78" t="str">
+        <v>abs/2111.10223</v>
+      </c>
+      <c r="H78" t="str">
+        <v/>
+      </c>
+      <c r="I78" t="str">
+        <v/>
+      </c>
+      <c r="J78" t="str">
+        <v/>
+      </c>
+      <c r="K78" t="str">
+        <v/>
+      </c>
+      <c r="L78" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M78" t="str">
+        <v>https://arxiv.org/abs/2111.10223</v>
+      </c>
+      <c r="N78" t="str">
+        <v/>
+      </c>
+      <c r="O78" t="str">
+        <v/>
+      </c>
+      <c r="P78" t="str">
+        <v/>
+      </c>
+      <c r="Q78" t="str">
+        <v>2111.10223</v>
+      </c>
+      <c r="R78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Ive J,Anuchitanukul A,Specia L</v>
+      </c>
+      <c r="C79" t="str">
+        <v/>
+      </c>
+      <c r="D79" t="str">
+        <v>Revisiting Contextual Toxicity Detection in Conversations</v>
+      </c>
+      <c r="E79" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F79" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G79" t="str">
+        <v>abs/2111.12447</v>
+      </c>
+      <c r="H79" t="str">
+        <v/>
+      </c>
+      <c r="I79" t="str">
+        <v/>
+      </c>
+      <c r="J79" t="str">
+        <v/>
+      </c>
+      <c r="K79" t="str">
+        <v/>
+      </c>
+      <c r="L79" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M79" t="str">
+        <v>https://arxiv.org/abs/2111.12447</v>
+      </c>
+      <c r="N79" t="str">
+        <v/>
+      </c>
+      <c r="O79" t="str">
+        <v/>
+      </c>
+      <c r="P79" t="str">
+        <v/>
+      </c>
+      <c r="Q79" t="str">
+        <v>2111.12447</v>
+      </c>
+      <c r="R79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Venkit PN,Wilson S</v>
+      </c>
+      <c r="C80" t="str">
+        <v/>
+      </c>
+      <c r="D80" t="str">
+        <v>Identification of Bias Against People with Disabilities in Sentiment Analysis and Toxicity Detection Models</v>
+      </c>
+      <c r="E80" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F80" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G80" t="str">
+        <v>abs/2111.13259</v>
+      </c>
+      <c r="H80" t="str">
+        <v/>
+      </c>
+      <c r="I80" t="str">
+        <v/>
+      </c>
+      <c r="J80" t="str">
+        <v/>
+      </c>
+      <c r="K80" t="str">
+        <v/>
+      </c>
+      <c r="L80" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M80" t="str">
+        <v>https://arxiv.org/abs/2111.13259</v>
+      </c>
+      <c r="N80" t="str">
+        <v/>
+      </c>
+      <c r="O80" t="str">
+        <v/>
+      </c>
+      <c r="P80" t="str">
+        <v/>
+      </c>
+      <c r="Q80" t="str">
+        <v>2111.13259</v>
+      </c>
+      <c r="R80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Pavlopoulos J,Sorensen J,Dixon L,Thain N,Androutsopoulos I</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Jurafsky D,Chai J,Schluter N,Tetreault JR</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Toxicity Detection: Does Context Really Matter?</v>
+      </c>
+      <c r="E81" t="str">
+        <v/>
+      </c>
+      <c r="F81" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G81" t="str">
+        <v/>
+      </c>
+      <c r="H81" t="str">
+        <v/>
+      </c>
+      <c r="I81" t="str">
+        <v>4296-4305</v>
+      </c>
+      <c r="J81" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="K81" t="str">
+        <v>Proceedings of the 58th Annual Meeting of the Association for Computational Linguistics, ACL 2020, Online, July 5-10, 2020</v>
+      </c>
+      <c r="L81" t="str">
+        <v>2020</v>
+      </c>
+      <c r="M81" t="str">
+        <v>https://doi.org/10.18653/v1/2020.acl-main.396;http://dx.doi.org/10.18653/V1/2020.ACL-MAIN.396</v>
+      </c>
+      <c r="N81" t="str">
+        <v>10.18653/V1/2020.ACL-MAIN.396</v>
+      </c>
+      <c r="O81" t="str">
+        <v/>
+      </c>
+      <c r="P81" t="str">
+        <v/>
+      </c>
+      <c r="Q81" t="str">
+        <v/>
+      </c>
+      <c r="R81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Wright AP,Shaikh O,Park H,Epperson W,Ahmed M,Pinel S,Yang D,Chau DH</v>
+      </c>
+      <c r="C82" t="str">
+        <v/>
+      </c>
+      <c r="D82" t="str">
+        <v>RECAST: Interactive Auditing of Automatic Toxicity Detection Models</v>
+      </c>
+      <c r="E82" t="str">
+        <v/>
+      </c>
+      <c r="F82" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G82" t="str">
+        <v/>
+      </c>
+      <c r="H82" t="str">
+        <v/>
+      </c>
+      <c r="I82" t="str">
+        <v>80-82</v>
+      </c>
+      <c r="J82" t="str">
+        <v>ACM</v>
+      </c>
+      <c r="K82" t="str">
+        <v>Chinese CHI 2020: The eighth International Workshop of Chinese CHI, Honolulu, HI, USA, April, 2020</v>
+      </c>
+      <c r="L82" t="str">
+        <v>2020</v>
+      </c>
+      <c r="M82" t="str">
+        <v>https://doi.org/10.1145/3403676.3403691;http://dx.doi.org/10.1145/3403676.3403691</v>
+      </c>
+      <c r="N82" t="str">
+        <v>10.1145/3403676.3403691</v>
+      </c>
+      <c r="O82" t="str">
+        <v/>
+      </c>
+      <c r="P82" t="str">
+        <v/>
+      </c>
+      <c r="Q82" t="str">
+        <v/>
+      </c>
+      <c r="R82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Jiang B</v>
+      </c>
+      <c r="C83" t="str">
+        <v/>
+      </c>
+      <c r="D83" t="str">
+        <v>Review on Marine Biotoxins Toxicity and Detection Methods</v>
+      </c>
+      <c r="E83" t="str">
+        <v/>
+      </c>
+      <c r="F83" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G83" t="str">
+        <v/>
+      </c>
+      <c r="H83" t="str">
+        <v/>
+      </c>
+      <c r="I83" t="str">
+        <v>28-33</v>
+      </c>
+      <c r="J83" t="str">
+        <v>ACM</v>
+      </c>
+      <c r="K83" t="str">
+        <v>Proceedings of the 10th International Conference on Biomedical Engineering and Technology, ICBET 2020, Tokyo, Japan, September 15-18, 2020</v>
+      </c>
+      <c r="L83" t="str">
+        <v>2020</v>
+      </c>
+      <c r="M83" t="str">
+        <v>https://doi.org/10.1145/3397391.3397392;http://dx.doi.org/10.1145/3397391.3397392</v>
+      </c>
+      <c r="N83" t="str">
+        <v>10.1145/3397391.3397392</v>
+      </c>
+      <c r="O83" t="str">
+        <v/>
+      </c>
+      <c r="P83" t="str">
+        <v/>
+      </c>
+      <c r="Q83" t="str">
+        <v/>
+      </c>
+      <c r="R83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Wright AP,Shaikh O,Park H,Epperson W,Ahmed M,Pinel S,Yang D,Chau DH</v>
+      </c>
+      <c r="C84" t="str">
+        <v/>
+      </c>
+      <c r="D84" t="str">
+        <v>RECAST: Interactive Auditing of Automatic Toxicity Detection Models</v>
+      </c>
+      <c r="E84" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F84" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G84" t="str">
+        <v>abs/2001.01819</v>
+      </c>
+      <c r="H84" t="str">
+        <v/>
+      </c>
+      <c r="I84" t="str">
+        <v/>
+      </c>
+      <c r="J84" t="str">
+        <v/>
+      </c>
+      <c r="K84" t="str">
+        <v/>
+      </c>
+      <c r="L84" t="str">
+        <v>2020</v>
+      </c>
+      <c r="M84" t="str">
+        <v>http://arxiv.org/abs/2001.01819</v>
+      </c>
+      <c r="N84" t="str">
+        <v/>
+      </c>
+      <c r="O84" t="str">
+        <v/>
+      </c>
+      <c r="P84" t="str">
+        <v/>
+      </c>
+      <c r="Q84" t="str">
+        <v>2001.01819</v>
+      </c>
+      <c r="R84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Pavlopoulos J,Sorensen J,Dixon L,Thain N,Androutsopoulos I</v>
+      </c>
+      <c r="C85" t="str">
+        <v/>
+      </c>
+      <c r="D85" t="str">
+        <v>Toxicity Detection: Does Context Really Matter?</v>
+      </c>
+      <c r="E85" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F85" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G85" t="str">
+        <v>abs/2006.00998</v>
+      </c>
+      <c r="H85" t="str">
+        <v/>
+      </c>
+      <c r="I85" t="str">
+        <v/>
+      </c>
+      <c r="J85" t="str">
+        <v/>
+      </c>
+      <c r="K85" t="str">
+        <v/>
+      </c>
+      <c r="L85" t="str">
+        <v>2020</v>
+      </c>
+      <c r="M85" t="str">
+        <v>https://arxiv.org/abs/2006.00998</v>
+      </c>
+      <c r="N85" t="str">
+        <v/>
+      </c>
+      <c r="O85" t="str">
+        <v/>
+      </c>
+      <c r="P85" t="str">
+        <v/>
+      </c>
+      <c r="Q85" t="str">
+        <v>2006.00998</v>
+      </c>
+      <c r="R85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Saini B,Srivastava S,Bajpai AK</v>
+      </c>
+      <c r="C86" t="str">
+        <v/>
+      </c>
+      <c r="D86" t="str">
+        <v>Robust Automated detection of Nanocarriers' Toxicity using Microscopic Image Analysis</v>
+      </c>
+      <c r="E86" t="str">
+        <v>EAI Endorsed Trans. Scalable Inf. Syst.</v>
+      </c>
+      <c r="F86" t="str">
+        <v>2019</v>
+      </c>
+      <c r="G86" t="str">
+        <v>6</v>
+      </c>
+      <c r="H86" t="str">
+        <v>20</v>
+      </c>
+      <c r="I86" t="str">
+        <v>e6</v>
+      </c>
+      <c r="J86" t="str">
+        <v/>
+      </c>
+      <c r="K86" t="str">
+        <v/>
+      </c>
+      <c r="L86" t="str">
+        <v>2019</v>
+      </c>
+      <c r="M86" t="str">
+        <v>https://doi.org/10.4108/eai.13-7-2018.156593;http://dx.doi.org/10.4108/EAI.13-7-2018.156593</v>
+      </c>
+      <c r="N86" t="str">
+        <v>10.4108/EAI.13-7-2018.156593</v>
+      </c>
+      <c r="O86" t="str">
+        <v/>
+      </c>
+      <c r="P86" t="str">
+        <v/>
+      </c>
+      <c r="Q86" t="str">
+        <v/>
+      </c>
+      <c r="R86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Gao K,Gao F,Du L,He C,Wan H,Wang P</v>
+      </c>
+      <c r="C87" t="str">
+        <v/>
+      </c>
+      <c r="D87" t="str">
+        <v>Multifunctional SH-SY5Y-based biomimetic sensor for integrated detection of olfaction, gustation and toxicity</v>
+      </c>
+      <c r="E87" t="str">
+        <v/>
+      </c>
+      <c r="F87" t="str">
+        <v>2019</v>
+      </c>
+      <c r="G87" t="str">
+        <v/>
+      </c>
+      <c r="H87" t="str">
+        <v/>
+      </c>
+      <c r="I87" t="str">
+        <v>1-3</v>
+      </c>
+      <c r="J87" t="str">
+        <v>IEEE</v>
+      </c>
+      <c r="K87" t="str">
+        <v>IEEE International Symposium on Olfaction and Electronic Nose, ISOEN 2019, Fukuoka, Japan, May 26-29, 2019</v>
+      </c>
+      <c r="L87" t="str">
+        <v>2019</v>
+      </c>
+      <c r="M87" t="str">
+        <v>https://doi.org/10.1109/ISOEN.2019.8823301;http://dx.doi.org/10.1109/ISOEN.2019.8823301</v>
+      </c>
+      <c r="N87" t="str">
+        <v>10.1109/ISOEN.2019.8823301</v>
+      </c>
+      <c r="O87" t="str">
+        <v/>
+      </c>
+      <c r="P87" t="str">
+        <v/>
+      </c>
+      <c r="Q87" t="str">
+        <v/>
+      </c>
+      <c r="R87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Noever D</v>
+      </c>
+      <c r="C88" t="str">
+        <v/>
+      </c>
+      <c r="D88" t="str">
+        <v>Machine Learning Suites for Online Toxicity Detection</v>
+      </c>
+      <c r="E88" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F88" t="str">
+        <v>2018</v>
+      </c>
+      <c r="G88" t="str">
+        <v>abs/1810.01869</v>
+      </c>
+      <c r="H88" t="str">
+        <v/>
+      </c>
+      <c r="I88" t="str">
+        <v/>
+      </c>
+      <c r="J88" t="str">
+        <v/>
+      </c>
+      <c r="K88" t="str">
+        <v/>
+      </c>
+      <c r="L88" t="str">
+        <v>2018</v>
+      </c>
+      <c r="M88" t="str">
+        <v>http://arxiv.org/abs/1810.01869</v>
+      </c>
+      <c r="N88" t="str">
+        <v/>
+      </c>
+      <c r="O88" t="str">
+        <v/>
+      </c>
+      <c r="P88" t="str">
+        <v/>
+      </c>
+      <c r="Q88" t="str">
+        <v>1810.01869</v>
+      </c>
+      <c r="R88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Zhou T,Han H,Liu P,Xiong J,Tian F,Li X</v>
+      </c>
+      <c r="C89" t="str">
+        <v/>
+      </c>
+      <c r="D89" t="str">
+        <v>Microbial Fuels Cell-Based Biosensor for Toxicity Detection: A Review</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Sensors</v>
+      </c>
+      <c r="F89" t="str">
+        <v>2017</v>
+      </c>
+      <c r="G89" t="str">
+        <v>17</v>
+      </c>
+      <c r="H89" t="str">
+        <v>10</v>
+      </c>
+      <c r="I89" t="str">
+        <v>2230</v>
+      </c>
+      <c r="J89" t="str">
+        <v/>
+      </c>
+      <c r="K89" t="str">
+        <v/>
+      </c>
+      <c r="L89" t="str">
+        <v>2017</v>
+      </c>
+      <c r="M89" t="str">
+        <v>https://doi.org/10.3390/s17102230;http://dx.doi.org/10.3390/S17102230</v>
+      </c>
+      <c r="N89" t="str">
+        <v>10.3390/S17102230</v>
+      </c>
+      <c r="O89" t="str">
+        <v/>
+      </c>
+      <c r="P89" t="str">
+        <v/>
+      </c>
+      <c r="Q89" t="str">
+        <v/>
+      </c>
+      <c r="R89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Märtens M,Shen S,Iosup A,Kuipers FA</v>
+      </c>
+      <c r="C90" t="str">
+        <v/>
+      </c>
+      <c r="D90" t="str">
+        <v>Toxicity detection in multiplayer online games</v>
+      </c>
+      <c r="E90" t="str">
+        <v/>
+      </c>
+      <c r="F90" t="str">
+        <v>2015</v>
+      </c>
+      <c r="G90" t="str">
+        <v/>
+      </c>
+      <c r="H90" t="str">
+        <v/>
+      </c>
+      <c r="I90" t="str">
+        <v>1-6</v>
+      </c>
+      <c r="J90" t="str">
+        <v>IEEE</v>
+      </c>
+      <c r="K90" t="str">
+        <v>2015 International Workshop on Network and Systems Support for Games, NetGames 2015, Zagreb, Croatia, December 3-4, 2015</v>
+      </c>
+      <c r="L90" t="str">
+        <v>2015</v>
+      </c>
+      <c r="M90" t="str">
+        <v>https://doi.org/10.1109/NetGames.2015.7382991;http://dx.doi.org/10.1109/NETGAMES.2015.7382991</v>
+      </c>
+      <c r="N90" t="str">
+        <v>10.1109/NETGAMES.2015.7382991</v>
+      </c>
+      <c r="O90" t="str">
+        <v/>
+      </c>
+      <c r="P90" t="str">
+        <v/>
+      </c>
+      <c r="Q90" t="str">
+        <v/>
+      </c>
+      <c r="R90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Zhang Q,Ding J,Kou L,Qin W</v>
+      </c>
+      <c r="C91" t="str">
+        <v/>
+      </c>
+      <c r="D91" t="str">
+        <v>A Potentiometric Flow Biosensor Based on Ammonia-Oxidizing Bacteriafor the Detection of Toxicity in Water</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Sensors</v>
+      </c>
+      <c r="F91" t="str">
+        <v>2013</v>
+      </c>
+      <c r="G91" t="str">
+        <v>13</v>
+      </c>
+      <c r="H91" t="str">
+        <v>6</v>
+      </c>
+      <c r="I91" t="str">
+        <v>6936-6945</v>
+      </c>
+      <c r="J91" t="str">
+        <v/>
+      </c>
+      <c r="K91" t="str">
+        <v/>
+      </c>
+      <c r="L91" t="str">
+        <v>2013</v>
+      </c>
+      <c r="M91" t="str">
+        <v>https://doi.org/10.3390/s130606936;http://dx.doi.org/10.3390/S130606936</v>
+      </c>
+      <c r="N91" t="str">
+        <v>10.3390/S130606936</v>
+      </c>
+      <c r="O91" t="str">
+        <v/>
+      </c>
+      <c r="P91" t="str">
+        <v/>
+      </c>
+      <c r="Q91" t="str">
+        <v/>
+      </c>
+      <c r="R91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Covington JA,Wedlake L,Andreyev J,Ouaret N,Thomas MG,Nwokolo CU,Bardhan KD,Arasaradnam RP</v>
+      </c>
+      <c r="C92" t="str">
+        <v/>
+      </c>
+      <c r="D92" t="str">
+        <v>The Detection of Patients at Risk of Gastrointestinal Toxicity during Pelvic Radiotherapy by Electronic Nose and FAIMS: A Pilot Study</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Sensors</v>
+      </c>
+      <c r="F92" t="str">
+        <v>2012</v>
+      </c>
+      <c r="G92" t="str">
+        <v>12</v>
+      </c>
+      <c r="H92" t="str">
+        <v>10</v>
+      </c>
+      <c r="I92" t="str">
+        <v>13002-13018</v>
+      </c>
+      <c r="J92" t="str">
+        <v/>
+      </c>
+      <c r="K92" t="str">
+        <v/>
+      </c>
+      <c r="L92" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M92" t="str">
+        <v>https://doi.org/10.3390/s121013002;http://dx.doi.org/10.3390/S121013002</v>
+      </c>
+      <c r="N92" t="str">
+        <v>10.3390/S121013002</v>
+      </c>
+      <c r="O92" t="str">
+        <v/>
+      </c>
+      <c r="P92" t="str">
+        <v/>
+      </c>
+      <c r="Q92" t="str">
+        <v/>
+      </c>
+      <c r="R92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Pireddu L,Michielan L,Floris M,Rodriguez-Tomé P,Moro S</v>
+      </c>
+      <c r="C93" t="str">
+        <v/>
+      </c>
+      <c r="D93" t="str">
+        <v>Fingerprint-based detection of acute aquatic toxicity</v>
+      </c>
+      <c r="E93" t="str">
+        <v>J. Cheminformatics</v>
+      </c>
+      <c r="F93" t="str">
+        <v>2010</v>
+      </c>
+      <c r="G93" t="str">
+        <v>2</v>
+      </c>
+      <c r="H93" t="str">
+        <v>S-1</v>
+      </c>
+      <c r="I93" t="str">
+        <v>46</v>
+      </c>
+      <c r="J93" t="str">
+        <v/>
+      </c>
+      <c r="K93" t="str">
+        <v/>
+      </c>
+      <c r="L93" t="str">
+        <v>2010</v>
+      </c>
+      <c r="M93" t="str">
+        <v>https://doi.org/10.1186/1758-2946-2-S1-P46;http://dx.doi.org/10.1186/1758-2946-2-S1-P46</v>
+      </c>
+      <c r="N93" t="str">
+        <v>10.1186/1758-2946-2-S1-P46</v>
+      </c>
+      <c r="O93" t="str">
+        <v/>
+      </c>
+      <c r="P93" t="str">
+        <v/>
+      </c>
+      <c r="Q93" t="str">
+        <v/>
+      </c>
+      <c r="R93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Kim SY,Kwon KY,Lee WD</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Kim J,Delen D,Park J,Ko F,Rui C,Lee JH,Wang J,Kou G</v>
+      </c>
+      <c r="D94" t="str">
+        <v>A Biological Early Warning System for Toxicity Detection</v>
+      </c>
+      <c r="E94" t="str">
+        <v/>
+      </c>
+      <c r="F94" t="str">
+        <v>2009</v>
+      </c>
+      <c r="G94" t="str">
+        <v/>
+      </c>
+      <c r="H94" t="str">
+        <v/>
+      </c>
+      <c r="I94" t="str">
+        <v>1157-1160</v>
+      </c>
+      <c r="J94" t="str">
+        <v>IEEE Computer Society</v>
+      </c>
+      <c r="K94" t="str">
+        <v>International Conference on Networked Computing and Advanced Information Management, NCM 2009, Fifth International Joint Conference on INC, IMS and IDC: INC 2009: International Conference on Networked Computing, IMS 2009: International Conference on Advanced Information Management and Service, IDC 2009: International Conference on Digital Content, Multimedia Technology and its Applications, Seoul, Korea, August 25-27, 2009</v>
+      </c>
+      <c r="L94" t="str">
+        <v>2009</v>
+      </c>
+      <c r="M94" t="str">
+        <v>https://doi.org/10.1109/NCM.2009.358;http://dx.doi.org/10.1109/NCM.2009.358</v>
+      </c>
+      <c r="N94" t="str">
+        <v>10.1109/NCM.2009.358</v>
+      </c>
+      <c r="O94" t="str">
+        <v/>
+      </c>
+      <c r="P94" t="str">
+        <v/>
+      </c>
+      <c r="Q94" t="str">
+        <v/>
+      </c>
+      <c r="R94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Cruz-Monteagudo M,Cordeiro MN,Borges F</v>
+      </c>
+      <c r="C95" t="str">
+        <v/>
+      </c>
+      <c r="D95" t="str">
+        <v>Computational chemistry approach for the early detection of drug-induced idiosyncratic liver toxicity</v>
+      </c>
+      <c r="E95" t="str">
+        <v>J. Comput. Chem.</v>
+      </c>
+      <c r="F95" t="str">
+        <v>2007</v>
+      </c>
+      <c r="G95" t="str">
+        <v>29</v>
+      </c>
+      <c r="H95" t="str">
+        <v>4</v>
+      </c>
+      <c r="I95" t="str">
+        <v>533-549</v>
+      </c>
+      <c r="J95" t="str">
+        <v/>
+      </c>
+      <c r="K95" t="str">
+        <v/>
+      </c>
+      <c r="L95" t="str">
+        <v>2007</v>
+      </c>
+      <c r="M95" t="str">
+        <v>https://doi.org/10.1002/jcc.20812;http://dx.doi.org/10.1002/JCC.20812</v>
+      </c>
+      <c r="N95" t="str">
+        <v>10.1002/JCC.20812</v>
+      </c>
+      <c r="O95" t="str">
+        <v/>
+      </c>
+      <c r="P95" t="str">
+        <v/>
+      </c>
+      <c r="Q95" t="str">
+        <v/>
+      </c>
+      <c r="R95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
         <v>Ph.D. Thesis</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B96" t="str">
         <v>Yamani HE</v>
       </c>
-      <c r="C69" t="str">
-        <v/>
-      </c>
-      <c r="D69" t="str">
+      <c r="C96" t="str">
+        <v/>
+      </c>
+      <c r="D96" t="str">
         <v>Mesure de la toxicité de polluants par biocapteur. Réalisation d'une électrode à butyrylcholinestérase. Automatisation de la détection de pesticides. (Toxicity measurement of pollutants by a biosensor. Construction of a butyrylcholinesterase electrode. Automatisation of pesticides detection)</v>
       </c>
-      <c r="E69" t="str">
-        <v/>
-      </c>
-      <c r="F69" t="str">
+      <c r="E96" t="str">
+        <v/>
+      </c>
+      <c r="F96" t="str">
         <v>1987</v>
       </c>
-      <c r="G69" t="str">
-        <v/>
-      </c>
-      <c r="H69" t="str">
-        <v/>
-      </c>
-      <c r="I69" t="str">
-        <v/>
-      </c>
-      <c r="J69" t="str">
-        <v/>
-      </c>
-      <c r="K69" t="str">
-        <v/>
-      </c>
-      <c r="L69" t="str">
+      <c r="G96" t="str">
+        <v/>
+      </c>
+      <c r="H96" t="str">
+        <v/>
+      </c>
+      <c r="I96" t="str">
+        <v/>
+      </c>
+      <c r="J96" t="str">
+        <v/>
+      </c>
+      <c r="K96" t="str">
+        <v/>
+      </c>
+      <c r="L96" t="str">
         <v>1987</v>
       </c>
-      <c r="M69" t="str">
+      <c r="M96" t="str">
         <v>https://tel.archives-ouvertes.fr/tel-01066089</v>
       </c>
-      <c r="N69" t="str">
-        <v/>
-      </c>
-      <c r="O69" t="str">
+      <c r="N96" t="str">
+        <v/>
+      </c>
+      <c r="O96" t="str">
         <v>Ph.D. Thesis</v>
       </c>
-      <c r="P69" t="str">
-        <v/>
-      </c>
-      <c r="Q69" t="str">
-        <v/>
-      </c>
-      <c r="R69" t="str">
+      <c r="P96" t="str">
+        <v/>
+      </c>
+      <c r="Q96" t="str">
+        <v/>
+      </c>
+      <c r="R96" t="str">
         <v>Mines ParisTech, France</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R69"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R96"/>
   </ignoredErrors>
 </worksheet>
 </file>